--- a/VA_result_EXT.xlsx
+++ b/VA_result_EXT.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t xml:space="preserve">time</t>
   </si>
@@ -392,6 +392,54 @@
     <t xml:space="preserve">2025-10-01</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-10-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">VA_CST</t>
   </si>
   <si>
@@ -461,73 +509,73 @@
     <t xml:space="preserve">-2.91038304567337e-10</t>
   </si>
   <si>
-    <t xml:space="preserve">-5.69529249082552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.62577837819117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.697810807731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.71108397972421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.44869727984769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.29477908811532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.46148617065046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9.03291701304261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.02575030201115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.02638142777141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.49028614698909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.3309200751828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14.1193999726092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13.5581615085248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16.9420626016799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-11.5301400150638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15.7467519433703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15.6041366138961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16.0309198369505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15.2069789159577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.44439528998919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1986411503749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0084119986859</t>
+    <t xml:space="preserve">5.52411882477463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45205952008837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16617008444155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1900101993524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95978235790972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10184457647847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32256968005095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.81673549639527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42885656096041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.5158265841892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0179373190039769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.82924747979268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16.4257303348277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.1704971727449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.7740335604176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.4473350672051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18.9415892411489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18.40507223655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.8748720268486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.1537279367913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.80622606707038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5405695134541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1406056286069</t>
   </si>
   <si>
     <t xml:space="preserve">valaj_brut</t>
@@ -568,7 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
+        <fgColor rgb="FFB8F0F6"/>
       </patternFill>
     </fill>
   </fills>
@@ -1514,10 +1562,10 @@
         <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>344991.395975441</v>
+        <v>811099.613621405</v>
       </c>
       <c r="C38" t="n">
-        <v>34.4991395975441</v>
+        <v>81.1099613621405</v>
       </c>
     </row>
     <row r="39">
@@ -1525,10 +1573,10 @@
         <v>56</v>
       </c>
       <c r="B39" t="n">
-        <v>406563.577717779</v>
+        <v>827540.016183675</v>
       </c>
       <c r="C39" t="n">
-        <v>40.6563577717779</v>
+        <v>82.7540016183675</v>
       </c>
     </row>
     <row r="40">
@@ -1547,10 +1595,10 @@
         <v>58</v>
       </c>
       <c r="B41" t="n">
-        <v>1191301.08340147</v>
+        <v>873974.492865133</v>
       </c>
       <c r="C41" t="n">
-        <v>119.130108340147</v>
+        <v>87.3974492865133</v>
       </c>
     </row>
     <row r="42">
@@ -2108,10 +2156,10 @@
         <v>96</v>
       </c>
       <c r="B92" t="n">
-        <v>922109.165512776</v>
+        <v>1157068.06741714</v>
       </c>
       <c r="C92" t="n">
-        <v>92.2109165512776</v>
+        <v>115.706806741714</v>
       </c>
     </row>
     <row r="93">
@@ -2218,10 +2266,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="n">
-        <v>1266575.57676408</v>
+        <v>1277689.18281963</v>
       </c>
       <c r="C102" t="n">
-        <v>126.657557676408</v>
+        <v>127.768918281963</v>
       </c>
     </row>
     <row r="103">
@@ -2229,10 +2277,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="n">
-        <v>1266575.57676408</v>
+        <v>1288802.78887518</v>
       </c>
       <c r="C103" t="n">
-        <v>126.657557676408</v>
+        <v>128.880278887518</v>
       </c>
     </row>
     <row r="104">
@@ -2240,10 +2288,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="n">
-        <v>1266575.57676408</v>
+        <v>1299916.39493073</v>
       </c>
       <c r="C104" t="n">
-        <v>126.657557676408</v>
+        <v>129.991639493073</v>
       </c>
     </row>
     <row r="105">
@@ -2251,10 +2299,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="n">
-        <v>1266575.57676408</v>
+        <v>1311030.00098627</v>
       </c>
       <c r="C105" t="n">
-        <v>126.657557676408</v>
+        <v>131.103000098627</v>
       </c>
     </row>
     <row r="106">
@@ -2262,10 +2310,10 @@
         <v>108</v>
       </c>
       <c r="B106" t="n">
-        <v>1266575.57676408</v>
+        <v>1322143.60704182</v>
       </c>
       <c r="C106" t="n">
-        <v>126.657557676408</v>
+        <v>132.214360704182</v>
       </c>
     </row>
     <row r="107">
@@ -2273,10 +2321,10 @@
         <v>109</v>
       </c>
       <c r="B107" t="n">
-        <v>1266575.57676408</v>
+        <v>1333257.21309737</v>
       </c>
       <c r="C107" t="n">
-        <v>126.657557676408</v>
+        <v>133.325721309737</v>
       </c>
     </row>
     <row r="108">
@@ -2284,10 +2332,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="n">
-        <v>1266575.57676408</v>
+        <v>1344370.81915292</v>
       </c>
       <c r="C108" t="n">
-        <v>126.657557676408</v>
+        <v>134.437081915292</v>
       </c>
     </row>
     <row r="109">
@@ -2295,10 +2343,10 @@
         <v>111</v>
       </c>
       <c r="B109" t="n">
-        <v>1266575.57676408</v>
+        <v>1355484.42520847</v>
       </c>
       <c r="C109" t="n">
-        <v>126.657557676408</v>
+        <v>135.548442520847</v>
       </c>
     </row>
     <row r="110">
@@ -2306,10 +2354,10 @@
         <v>112</v>
       </c>
       <c r="B110" t="n">
-        <v>1266575.57676408</v>
+        <v>1366598.03126402</v>
       </c>
       <c r="C110" t="n">
-        <v>126.657557676408</v>
+        <v>136.659803126402</v>
       </c>
     </row>
     <row r="111">
@@ -2317,10 +2365,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="n">
-        <v>1266575.57676408</v>
+        <v>1377711.63731956</v>
       </c>
       <c r="C111" t="n">
-        <v>126.657557676408</v>
+        <v>137.771163731956</v>
       </c>
     </row>
     <row r="112">
@@ -2328,10 +2376,10 @@
         <v>114</v>
       </c>
       <c r="B112" t="n">
-        <v>1266575.57676408</v>
+        <v>1388825.24337511</v>
       </c>
       <c r="C112" t="n">
-        <v>126.657557676408</v>
+        <v>138.882524337511</v>
       </c>
     </row>
     <row r="113">
@@ -2339,10 +2387,10 @@
         <v>115</v>
       </c>
       <c r="B113" t="n">
-        <v>1266575.57676408</v>
+        <v>1399938.84943066</v>
       </c>
       <c r="C113" t="n">
-        <v>126.657557676408</v>
+        <v>139.993884943066</v>
       </c>
     </row>
     <row r="114">
@@ -2350,10 +2398,10 @@
         <v>116</v>
       </c>
       <c r="B114" t="n">
-        <v>1266575.57676408</v>
+        <v>1411052.45548621</v>
       </c>
       <c r="C114" t="n">
-        <v>126.657557676408</v>
+        <v>141.105245548621</v>
       </c>
     </row>
     <row r="115">
@@ -2361,10 +2409,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="n">
-        <v>1266575.57676408</v>
+        <v>1422166.06154176</v>
       </c>
       <c r="C115" t="n">
-        <v>126.657557676408</v>
+        <v>142.216606154176</v>
       </c>
     </row>
     <row r="116">
@@ -2372,10 +2420,10 @@
         <v>118</v>
       </c>
       <c r="B116" t="n">
-        <v>1266575.57676408</v>
+        <v>1433279.66759731</v>
       </c>
       <c r="C116" t="n">
-        <v>126.657557676408</v>
+        <v>143.327966759731</v>
       </c>
     </row>
     <row r="117">
@@ -2383,10 +2431,10 @@
         <v>119</v>
       </c>
       <c r="B117" t="n">
-        <v>1266575.57676408</v>
+        <v>1444393.27365286</v>
       </c>
       <c r="C117" t="n">
-        <v>126.657557676408</v>
+        <v>144.439327365286</v>
       </c>
     </row>
     <row r="118">
@@ -2394,10 +2442,10 @@
         <v>120</v>
       </c>
       <c r="B118" t="n">
-        <v>1266575.57676408</v>
+        <v>1455506.8797084</v>
       </c>
       <c r="C118" t="n">
-        <v>126.657557676408</v>
+        <v>145.55068797084</v>
       </c>
     </row>
     <row r="119">
@@ -2405,10 +2453,10 @@
         <v>121</v>
       </c>
       <c r="B119" t="n">
-        <v>1266575.57676408</v>
+        <v>1466620.48576395</v>
       </c>
       <c r="C119" t="n">
-        <v>126.657557676408</v>
+        <v>146.662048576395</v>
       </c>
     </row>
     <row r="120">
@@ -2416,10 +2464,10 @@
         <v>122</v>
       </c>
       <c r="B120" t="n">
-        <v>1266575.57676408</v>
+        <v>1477734.0918195</v>
       </c>
       <c r="C120" t="n">
-        <v>126.657557676408</v>
+        <v>147.77340918195</v>
       </c>
     </row>
     <row r="121">
@@ -2427,10 +2475,186 @@
         <v>123</v>
       </c>
       <c r="B121" t="n">
-        <v>1266575.57676408</v>
+        <v>1488847.69787505</v>
       </c>
       <c r="C121" t="n">
-        <v>126.657557676408</v>
+        <v>148.884769787505</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1499961.3039306</v>
+      </c>
+      <c r="C122" t="n">
+        <v>149.99613039306</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1511074.90998615</v>
+      </c>
+      <c r="C123" t="n">
+        <v>151.107490998615</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1522188.51604169</v>
+      </c>
+      <c r="C124" t="n">
+        <v>152.218851604169</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1533302.12209724</v>
+      </c>
+      <c r="C125" t="n">
+        <v>153.330212209724</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1544415.72815279</v>
+      </c>
+      <c r="C126" t="n">
+        <v>154.441572815279</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1555529.33420834</v>
+      </c>
+      <c r="C127" t="n">
+        <v>155.552933420834</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1566642.94026389</v>
+      </c>
+      <c r="C128" t="n">
+        <v>156.664294026389</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1577756.54631944</v>
+      </c>
+      <c r="C129" t="n">
+        <v>157.775654631944</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1588870.15237499</v>
+      </c>
+      <c r="C130" t="n">
+        <v>158.887015237499</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1599983.75843053</v>
+      </c>
+      <c r="C131" t="n">
+        <v>159.998375843053</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1611097.36448608</v>
+      </c>
+      <c r="C132" t="n">
+        <v>161.109736448608</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1622210.97054163</v>
+      </c>
+      <c r="C133" t="n">
+        <v>162.221097054163</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1633324.57659718</v>
+      </c>
+      <c r="C134" t="n">
+        <v>163.332457659718</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1644438.18265273</v>
+      </c>
+      <c r="C135" t="n">
+        <v>164.443818265273</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1655551.78870828</v>
+      </c>
+      <c r="C136" t="n">
+        <v>165.555178870828</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1666665.39476382</v>
+      </c>
+      <c r="C137" t="n">
+        <v>166.666539476382</v>
       </c>
     </row>
   </sheetData>
@@ -2452,19 +2676,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
@@ -2498,7 +2722,7 @@
         <v>15.0599443627879</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4">
@@ -2506,19 +2730,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>176250.859255794</v>
+        <v>176262.078667109</v>
       </c>
       <c r="C4" t="n">
         <v>21.7492702464352</v>
       </c>
       <c r="D4" t="n">
-        <v>10.6661438219852</v>
+        <v>10.6731883776344</v>
       </c>
       <c r="E4" t="n">
         <v>14.7040908942729</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
@@ -2526,19 +2750,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>190337.774506035</v>
+        <v>190348.852343934</v>
       </c>
       <c r="C5" t="n">
         <v>23.674834826729</v>
       </c>
       <c r="D5" t="n">
-        <v>7.99253706320775</v>
+        <v>7.99194800342085</v>
       </c>
       <c r="E5" t="n">
         <v>8.85346753466088</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
@@ -2546,19 +2770,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>251629.25416935</v>
+        <v>251640.118150242</v>
       </c>
       <c r="C6" t="n">
         <v>35.9204244113432</v>
       </c>
       <c r="D6" t="n">
-        <v>32.2014270800309</v>
+        <v>32.1994406856543</v>
       </c>
       <c r="E6" t="n">
         <v>51.7240761096629</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -2566,19 +2790,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>224193.826013358</v>
+        <v>224204.727107537</v>
       </c>
       <c r="C7" t="n">
         <v>32.5332601154631</v>
       </c>
       <c r="D7" t="n">
-        <v>-10.9031154769975</v>
+        <v>-10.9026300116123</v>
       </c>
       <c r="E7" t="n">
         <v>-9.42963328353816</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -2586,19 +2810,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>345696.218437414</v>
+        <v>345707.626917051</v>
       </c>
       <c r="C8" t="n">
         <v>48.4730080422921</v>
       </c>
       <c r="D8" t="n">
-        <v>54.1952446169574</v>
+        <v>54.1928358857646</v>
       </c>
       <c r="E8" t="n">
         <v>48.9952370904658</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
@@ -2606,19 +2830,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>519482.384450557</v>
+        <v>519491.781074221</v>
       </c>
       <c r="C9" t="n">
         <v>80.3252958341294</v>
       </c>
       <c r="D9" t="n">
-        <v>50.2713529232911</v>
+        <v>50.2691119970193</v>
       </c>
       <c r="E9" t="n">
         <v>65.7113908921156</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
@@ -2626,19 +2850,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>556532.788039215</v>
+        <v>556541.572095066</v>
       </c>
       <c r="C10" t="n">
         <v>69.3798480737486</v>
       </c>
       <c r="D10" t="n">
-        <v>7.13217708582088</v>
+        <v>7.1319301614805</v>
       </c>
       <c r="E10" t="n">
         <v>-13.6264020527021</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11">
@@ -2646,19 +2870,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>544500.45451711</v>
+        <v>544504.670698627</v>
       </c>
       <c r="C11" t="n">
-        <v>70.5489462395897</v>
+        <v>84.7928978789779</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.16201700613143</v>
+        <v>-2.16280364306428</v>
       </c>
       <c r="E11" t="n">
-        <v>1.68506878913668</v>
+        <v>22.215456264542</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
@@ -2666,19 +2890,19 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>684407.24246385</v>
+        <v>684420.697070713</v>
       </c>
       <c r="C12" t="n">
         <v>91.7992182530603</v>
       </c>
       <c r="D12" t="n">
-        <v>25.6945217926064</v>
+        <v>25.6960195020121</v>
       </c>
       <c r="E12" t="n">
-        <v>30.121317391904</v>
+        <v>8.26286227896384</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -2686,19 +2910,19 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>521388.299823912</v>
+        <v>521391.810378756</v>
       </c>
       <c r="C13" t="n">
         <v>71.6055019233921</v>
       </c>
       <c r="D13" t="n">
-        <v>-23.8189973053285</v>
+        <v>-23.8199819774172</v>
       </c>
       <c r="E13" t="n">
         <v>-21.9976996688585</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
@@ -2706,19 +2930,19 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>665265.932366621</v>
+        <v>665272.440590087</v>
       </c>
       <c r="C14" t="n">
         <v>87.9854505659111</v>
       </c>
       <c r="D14" t="n">
-        <v>27.5951018830495</v>
+        <v>27.5954910198553</v>
       </c>
       <c r="E14" t="n">
         <v>22.8752654510309</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -2726,19 +2950,19 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>797127.923769856</v>
+        <v>797131.425442451</v>
       </c>
       <c r="C15" t="n">
         <v>90.7971012874425</v>
       </c>
       <c r="D15" t="n">
-        <v>19.8209445257701</v>
+        <v>19.8202986937814</v>
       </c>
       <c r="E15" t="n">
         <v>3.19558597864447</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
@@ -2746,19 +2970,19 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>772833.192127055</v>
+        <v>772830.885796693</v>
       </c>
       <c r="C16" t="n">
         <v>88.7770379691278</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.0477832877694</v>
+        <v>-3.04849851230873</v>
       </c>
       <c r="E16" t="n">
         <v>-2.22481036252437</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
@@ -2766,19 +2990,19 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>834477.06342079</v>
+        <v>834475.451085125</v>
       </c>
       <c r="C17" t="n">
         <v>88.0748226342223</v>
       </c>
       <c r="D17" t="n">
-        <v>7.97634883202587</v>
+        <v>7.97646243458356</v>
       </c>
       <c r="E17" t="n">
         <v>-0.790987569499313</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
@@ -2786,19 +3010,19 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>668588.545845821</v>
+        <v>668583.713874862</v>
       </c>
       <c r="C18" t="n">
         <v>78.9750849032888</v>
       </c>
       <c r="D18" t="n">
-        <v>-19.8793381923451</v>
+        <v>-19.8797624297447</v>
       </c>
       <c r="E18" t="n">
         <v>-10.3318263480643</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
@@ -2806,19 +3030,19 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>768764.809661918</v>
+        <v>768765.892466865</v>
       </c>
       <c r="C19" t="n">
         <v>81.6482783789985</v>
       </c>
       <c r="D19" t="n">
-        <v>14.9832455908088</v>
+        <v>14.9842385497823</v>
       </c>
       <c r="E19" t="n">
         <v>3.38485672916122</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20">
@@ -2826,19 +3050,19 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>743464.387724344</v>
+        <v>743461.192887046</v>
       </c>
       <c r="C20" t="n">
         <v>78.2299369589087</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.29104839602377</v>
+        <v>-3.29160019035444</v>
       </c>
       <c r="E20" t="n">
         <v>-4.18666686910703</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21">
@@ -2846,19 +3070,19 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>895137.395863386</v>
+        <v>895134.594927763</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>20.4008437584072</v>
+        <v>20.4009844080404</v>
       </c>
       <c r="E21" t="n">
         <v>27.828301910209</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22">
@@ -2866,19 +3090,19 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>1045983.96908016</v>
+        <v>1045979.12512797</v>
       </c>
       <c r="C22" t="n">
         <v>125.365120796157</v>
       </c>
       <c r="D22" t="n">
-        <v>16.8517787228944</v>
+        <v>16.8516032175455</v>
       </c>
       <c r="E22" t="n">
         <v>25.3651207961574</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23">
@@ -2886,19 +3110,19 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>799163.19733175</v>
+        <v>799157.250582729</v>
       </c>
       <c r="C23" t="n">
         <v>110.963342052066</v>
       </c>
       <c r="D23" t="n">
-        <v>-23.5969937441266</v>
+        <v>-23.5972084543319</v>
       </c>
       <c r="E23" t="n">
         <v>-11.4878673211736</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24">
@@ -2906,19 +3130,19 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>301297.516561304</v>
+        <v>301300.154730527</v>
       </c>
       <c r="C24" t="n">
-        <v>105.665293215499</v>
+        <v>111.539265763109</v>
       </c>
       <c r="D24" t="n">
-        <v>-62.2983744037166</v>
+        <v>-62.2977637366332</v>
       </c>
       <c r="E24" t="n">
-        <v>-4.77459378799226</v>
+        <v>0.519021597936709</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25">
@@ -2926,19 +3150,19 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>354137.671758006</v>
+        <v>354167.01368637</v>
       </c>
       <c r="C25" t="n">
         <v>125.021161021392</v>
       </c>
       <c r="D25" t="n">
-        <v>17.5375342617373</v>
+        <v>17.5462435467798</v>
       </c>
       <c r="E25" t="n">
-        <v>18.3180940655861</v>
+        <v>12.0871292867542</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26">
@@ -2946,19 +3170,19 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>376228.347533657</v>
+        <v>376256.479727287</v>
       </c>
       <c r="C26" t="n">
         <v>122.7138442786</v>
       </c>
       <c r="D26" t="n">
-        <v>6.23787796028257</v>
+        <v>6.23701959451213</v>
       </c>
       <c r="E26" t="n">
         <v>-1.8455409659783</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27">
@@ -2966,19 +3190,19 @@
         <v>104</v>
       </c>
       <c r="B27" t="n">
-        <v>448715.08952954</v>
+        <v>474826.053440543</v>
       </c>
       <c r="C27" t="n">
-        <v>126.657557676408</v>
+        <v>129.435959190295</v>
       </c>
       <c r="D27" t="n">
-        <v>19.2666880289764</v>
+        <v>26.197442176863</v>
       </c>
       <c r="E27" t="n">
-        <v>3.21374774051912</v>
+        <v>5.47787818987511</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
@@ -2986,19 +3210,19 @@
         <v>108</v>
       </c>
       <c r="B28" t="n">
-        <v>448715.08952954</v>
+        <v>550448.36264867</v>
       </c>
       <c r="C28" t="n">
-        <v>126.657557676408</v>
+        <v>133.881401612515</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>15.9263184191715</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.43447249900917</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29">
@@ -3006,19 +3230,19 @@
         <v>112</v>
       </c>
       <c r="B29" t="n">
-        <v>448715.08952954</v>
+        <v>617951.823764065</v>
       </c>
       <c r="C29" t="n">
-        <v>126.657557676408</v>
+        <v>138.326844034734</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>12.2633594167816</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3.32043313610173</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30">
@@ -3026,19 +3250,19 @@
         <v>116</v>
       </c>
       <c r="B30" t="n">
-        <v>448715.08952954</v>
+        <v>678663.4638348</v>
       </c>
       <c r="C30" t="n">
-        <v>126.657557676408</v>
+        <v>142.772286456953</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>9.82465586086121</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>3.2137235930165</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31">
@@ -3046,19 +3270,99 @@
         <v>120</v>
       </c>
       <c r="B31" t="n">
-        <v>448715.08952954</v>
+        <v>733693.407120988</v>
       </c>
       <c r="C31" t="n">
-        <v>126.657557676408</v>
+        <v>147.217728879173</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>8.10857607911297</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.11365919292728</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="n">
+        <v>783970.327890938</v>
+      </c>
+      <c r="C32" t="n">
+        <v>151.663171301392</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6.85257905849754</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.01963795805322</v>
+      </c>
+      <c r="F32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="n">
+        <v>830271.108451979</v>
+      </c>
+      <c r="C33" t="n">
+        <v>156.108613723611</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5.9059353286496</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.93112848958248</v>
+      </c>
+      <c r="F33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="n">
+        <v>873245.649571299</v>
+      </c>
+      <c r="C34" t="n">
+        <v>160.554056145831</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5.17596489650762</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.84765991842704</v>
+      </c>
+      <c r="F34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="n">
+        <v>913437.625629437</v>
+      </c>
+      <c r="C35" t="n">
+        <v>164.99949856805</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4.60259676963406</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.76881352544691</v>
+      </c>
+      <c r="F35" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3080,19 +3384,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
@@ -3103,16 +3407,16 @@
         <v>159263.577069521</v>
       </c>
       <c r="C2" t="n">
-        <v>119843.239233864</v>
+        <v>145298.112926209</v>
       </c>
       <c r="D2" t="n">
-        <v>39420.3378356572</v>
+        <v>13965.4641433116</v>
       </c>
       <c r="E2" t="n">
         <v>18.9611983991768</v>
       </c>
       <c r="F2" t="n">
-        <v>82583.0763413991</v>
+        <v>25447.1740940197</v>
       </c>
     </row>
     <row r="3">
@@ -3123,16 +3427,16 @@
         <v>176256.554548285</v>
       </c>
       <c r="C3" t="n">
-        <v>167600.294039967</v>
+        <v>171374.287918881</v>
       </c>
       <c r="D3" t="n">
-        <v>8656.26050831747</v>
+        <v>4882.26662940316</v>
       </c>
       <c r="E3" t="n">
         <v>21.7492702464352</v>
       </c>
       <c r="F3" t="n">
-        <v>81221.7988661779</v>
+        <v>26164.5718386878</v>
       </c>
     </row>
     <row r="4">
@@ -3143,16 +3447,16 @@
         <v>190343.400284413</v>
       </c>
       <c r="C4" t="n">
-        <v>179080.42004725</v>
+        <v>183215.127441831</v>
       </c>
       <c r="D4" t="n">
-        <v>11262.9802371631</v>
+        <v>7128.27284258241</v>
       </c>
       <c r="E4" t="n">
         <v>23.674834826729</v>
       </c>
       <c r="F4" t="n">
-        <v>82632.3919182773</v>
+        <v>29010.7890771903</v>
       </c>
     </row>
     <row r="5">
@@ -3163,16 +3467,16 @@
         <v>251634.951980158</v>
       </c>
       <c r="C5" t="n">
-        <v>260934.255703026</v>
+        <v>257080.968876108</v>
       </c>
       <c r="D5" t="n">
-        <v>-9299.30372286843</v>
+        <v>-5446.01689595074</v>
       </c>
       <c r="E5" t="n">
         <v>35.9204244113432</v>
       </c>
       <c r="F5" t="n">
-        <v>63309.5672237968</v>
+        <v>18817.7877936469</v>
       </c>
     </row>
     <row r="6">
@@ -3183,16 +3487,16 @@
         <v>224198.537097338</v>
       </c>
       <c r="C6" t="n">
-        <v>221657.523069536</v>
+        <v>228780.164381571</v>
       </c>
       <c r="D6" t="n">
-        <v>2541.01402780147</v>
+        <v>-4581.6272842333</v>
       </c>
       <c r="E6" t="n">
         <v>32.5332601154631</v>
       </c>
       <c r="F6" t="n">
-        <v>58171.3141041876</v>
+        <v>11154.2000079085</v>
       </c>
     </row>
     <row r="7">
@@ -3203,16 +3507,16 @@
         <v>345700.667134693</v>
       </c>
       <c r="C7" t="n">
-        <v>322076.166720593</v>
+        <v>315417.90248091</v>
       </c>
       <c r="D7" t="n">
-        <v>23624.5004141</v>
+        <v>30282.7646537834</v>
       </c>
       <c r="E7" t="n">
         <v>48.4730080422921</v>
       </c>
       <c r="F7" t="n">
-        <v>74739.9225613996</v>
+        <v>39606.8490644923</v>
       </c>
     </row>
     <row r="8">
@@ -3223,16 +3527,16 @@
         <v>519487.679229645</v>
       </c>
       <c r="C8" t="n">
-        <v>546322.592912858</v>
+        <v>525162.952183534</v>
       </c>
       <c r="D8" t="n">
-        <v>-26834.9136832133</v>
+        <v>-5675.27295388862</v>
       </c>
       <c r="E8" t="n">
         <v>80.3252958341294</v>
       </c>
       <c r="F8" t="n">
-        <v>38839.005855673</v>
+        <v>27453.7283112936</v>
       </c>
     </row>
     <row r="9">
@@ -3243,16 +3547,16 @@
         <v>556536.249525386</v>
       </c>
       <c r="C9" t="n">
-        <v>442721.825147088</v>
+        <v>451100.163278583</v>
       </c>
       <c r="D9" t="n">
-        <v>113814.424378298</v>
+        <v>105436.086246803</v>
       </c>
       <c r="E9" t="n">
         <v>69.3798480737486</v>
       </c>
       <c r="F9" t="n">
-        <v>147942.942650346</v>
+        <v>128397.175607652</v>
       </c>
     </row>
     <row r="10">
@@ -3263,16 +3567,16 @@
         <v>544509.487434123</v>
       </c>
       <c r="C10" t="n">
-        <v>546285.554746459</v>
+        <v>625529.367879783</v>
       </c>
       <c r="D10" t="n">
-        <v>-1776.06731233615</v>
+        <v>-81019.8804456599</v>
       </c>
       <c r="E10" t="n">
-        <v>70.5489462395897</v>
+        <v>84.7928978789779</v>
       </c>
       <c r="F10" t="n">
-        <v>128219.84883679</v>
+        <v>26395.5725533501</v>
       </c>
     </row>
     <row r="11">
@@ -3283,16 +3587,16 @@
         <v>684415.268214152</v>
       </c>
       <c r="C11" t="n">
-        <v>668848.697186503</v>
+        <v>581089.62165282</v>
       </c>
       <c r="D11" t="n">
-        <v>15566.5710276491</v>
+        <v>103325.646561332</v>
       </c>
       <c r="E11" t="n">
         <v>91.7992182530603</v>
       </c>
       <c r="F11" t="n">
-        <v>128232.208017835</v>
+        <v>125401.429608985</v>
       </c>
     </row>
     <row r="12">
@@ -3303,16 +3607,16 @@
         <v>521396.32620534</v>
       </c>
       <c r="C12" t="n">
-        <v>535921.584652596</v>
+        <v>546040.557427908</v>
       </c>
       <c r="D12" t="n">
-        <v>-14525.2584472558</v>
+        <v>-24644.2312225678</v>
       </c>
       <c r="E12" t="n">
         <v>71.6055019233921</v>
       </c>
       <c r="F12" t="n">
-        <v>98151.2383025452</v>
+        <v>80264.8300421062</v>
       </c>
     </row>
     <row r="13">
@@ -3323,16 +3627,16 @@
         <v>665272.422652768</v>
       </c>
       <c r="C13" t="n">
-        <v>617321.47434746</v>
+        <v>603896.194541849</v>
       </c>
       <c r="D13" t="n">
-        <v>47950.9483053078</v>
+        <v>61376.2281109183</v>
       </c>
       <c r="E13" t="n">
         <v>87.9854505659111</v>
       </c>
       <c r="F13" t="n">
-        <v>134195.912179708</v>
+        <v>128521.740623193</v>
       </c>
     </row>
     <row r="14">
@@ -3343,16 +3647,16 @@
         <v>797136.254689931</v>
       </c>
       <c r="C14" t="n">
-        <v>667502.669980682</v>
+        <v>660683.575575355</v>
       </c>
       <c r="D14" t="n">
-        <v>129633.584709249</v>
+        <v>136452.679114576</v>
       </c>
       <c r="E14" t="n">
         <v>90.7971012874425</v>
       </c>
       <c r="F14" t="n">
-        <v>247550.26633692</v>
+        <v>243972.349468956</v>
       </c>
     </row>
     <row r="15">
@@ -3363,16 +3667,16 @@
         <v>772847.311527028</v>
       </c>
       <c r="C15" t="n">
-        <v>753806.47197728</v>
+        <v>745483.088004048</v>
       </c>
       <c r="D15" t="n">
-        <v>19040.8395497477</v>
+        <v>27364.2235229793</v>
       </c>
       <c r="E15" t="n">
         <v>88.7770379691278</v>
       </c>
       <c r="F15" t="n">
-        <v>236559.673861787</v>
+        <v>231475.678315643</v>
       </c>
     </row>
     <row r="16">
@@ -3383,16 +3687,16 @@
         <v>834490.621582298</v>
       </c>
       <c r="C16" t="n">
-        <v>739526.48439787</v>
+        <v>730928.509569587</v>
       </c>
       <c r="D16" t="n">
-        <v>94964.1371844284</v>
+        <v>103562.112012711</v>
       </c>
       <c r="E16" t="n">
         <v>88.0748226342223</v>
       </c>
       <c r="F16" t="n">
-        <v>302825.762667228</v>
+        <v>297218.223361934</v>
       </c>
     </row>
     <row r="17">
@@ -3403,16 +3707,16 @@
         <v>668605.487908423</v>
       </c>
       <c r="C17" t="n">
-        <v>737848.334213682</v>
+        <v>732811.622948899</v>
       </c>
       <c r="D17" t="n">
-        <v>-69242.8463052597</v>
+        <v>-64206.1350404766</v>
       </c>
       <c r="E17" t="n">
         <v>78.9750849032888</v>
       </c>
       <c r="F17" t="n">
-        <v>196845.43614249</v>
+        <v>184453.495155659</v>
       </c>
     </row>
     <row r="18">
@@ -3423,16 +3727,16 @@
         <v>768776.339801933</v>
       </c>
       <c r="C18" t="n">
-        <v>662323.583856816</v>
+        <v>654071.949878858</v>
       </c>
       <c r="D18" t="n">
-        <v>106452.755945117</v>
+        <v>114704.389923075</v>
       </c>
       <c r="E18" t="n">
         <v>81.6482783789985</v>
       </c>
       <c r="F18" t="n">
-        <v>279418.292976169</v>
+        <v>269019.378475149</v>
       </c>
     </row>
     <row r="19">
@@ -3443,16 +3747,16 @@
         <v>743480.134476287</v>
       </c>
       <c r="C19" t="n">
-        <v>712375.259384935</v>
+        <v>704869.194087075</v>
       </c>
       <c r="D19" t="n">
-        <v>31104.8750913523</v>
+        <v>38610.9403892125</v>
       </c>
       <c r="E19" t="n">
         <v>78.2299369589087</v>
       </c>
       <c r="F19" t="n">
-        <v>276625.49264914</v>
+        <v>263677.999061089</v>
       </c>
     </row>
     <row r="20">
@@ -3463,16 +3767,16 @@
         <v>895153</v>
       </c>
       <c r="C20" t="n">
-        <v>853236.559258424</v>
+        <v>827484.712780311</v>
       </c>
       <c r="D20" t="n">
-        <v>41916.4407415761</v>
+        <v>67668.2872196892</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>284983.081770117</v>
+        <v>288266.479298967</v>
       </c>
     </row>
     <row r="21">
@@ -3483,16 +3787,16 @@
         <v>1046000</v>
       </c>
       <c r="C21" t="n">
-        <v>1027562.23088255</v>
+        <v>996127.477837158</v>
       </c>
       <c r="D21" t="n">
-        <v>18437.7691174472</v>
+        <v>49872.5221628422</v>
       </c>
       <c r="E21" t="n">
         <v>125.365120796157</v>
       </c>
       <c r="F21" t="n">
-        <v>268848.052777892</v>
+        <v>291042.673165049</v>
       </c>
     </row>
     <row r="22">
@@ -3503,16 +3807,16 @@
         <v>799178.404310666</v>
       </c>
       <c r="C22" t="n">
-        <v>918575.848954148</v>
+        <v>914378.711362186</v>
       </c>
       <c r="D22" t="n">
-        <v>-119397.444643482</v>
+        <v>-115200.307051521</v>
       </c>
       <c r="E22" t="n">
         <v>110.963342052066</v>
       </c>
       <c r="F22" t="n">
-        <v>116835.31903373</v>
+        <v>128292.5473314</v>
       </c>
     </row>
     <row r="23">
@@ -3523,16 +3827,16 @@
         <v>301304.960956594</v>
       </c>
       <c r="C23" t="n">
-        <v>750127.595008297</v>
+        <v>781575.770811024</v>
       </c>
       <c r="D23" t="n">
-        <v>-448822.634051703</v>
+        <v>-480270.80985443</v>
       </c>
       <c r="E23" t="n">
-        <v>105.665293215499</v>
+        <v>111.539265763109</v>
       </c>
       <c r="F23" t="n">
-        <v>-346160.350564035</v>
+        <v>-372942.894132243</v>
       </c>
     </row>
     <row r="24">
@@ -3543,16 +3847,16 @@
         <v>354121.473116856</v>
       </c>
       <c r="C24" t="n">
-        <v>470725.071153651</v>
+        <v>440918.578017113</v>
       </c>
       <c r="D24" t="n">
-        <v>-116603.598036795</v>
+        <v>-86797.1049002573</v>
       </c>
       <c r="E24" t="n">
         <v>125.021161021392</v>
       </c>
       <c r="F24" t="n">
-        <v>-420766.140276778</v>
+        <v>-398827.962585367</v>
       </c>
     </row>
     <row r="25">
@@ -3563,16 +3867,16 @@
         <v>376208.339121658</v>
       </c>
       <c r="C25" t="n">
-        <v>389981.110639785</v>
+        <v>405792.692653658</v>
       </c>
       <c r="D25" t="n">
-        <v>-13772.7715181266</v>
+        <v>-29584.3535319994</v>
       </c>
       <c r="E25" t="n">
         <v>122.7138442786</v>
       </c>
       <c r="F25" t="n">
-        <v>-383489.895347456</v>
+        <v>-363271.961035853</v>
       </c>
     </row>
   </sheetData>
@@ -3594,34 +3898,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
@@ -3632,31 +3936,31 @@
         <v>4.92670337924297</v>
       </c>
       <c r="C2" t="n">
-        <v>49125.1300793501</v>
+        <v>13725.0758407245</v>
       </c>
       <c r="D2" t="n">
-        <v>31187.9311596439</v>
+        <v>37412.6743559567</v>
       </c>
       <c r="E2" t="n">
-        <v>119843.239233864</v>
+        <v>145298.112926209</v>
       </c>
       <c r="F2" t="n">
         <v>159263.577069521</v>
       </c>
       <c r="G2" t="n">
-        <v>39420.3378356572</v>
+        <v>13965.4641433116</v>
       </c>
       <c r="H2" t="n">
-        <v>11814.4069385978</v>
+        <v>4103.44712532046</v>
       </c>
       <c r="I2" t="n">
-        <v>43002.3380982417</v>
+        <v>41516.1214812771</v>
       </c>
       <c r="J2" t="n">
         <v>159263.57706952</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3">
@@ -3667,31 +3971,31 @@
         <v>4.77661934695987</v>
       </c>
       <c r="C3" t="n">
-        <v>49125.1300793501</v>
+        <v>13725.0758407245</v>
       </c>
       <c r="D3" t="n">
-        <v>30199.9076279853</v>
+        <v>36536.54749551</v>
       </c>
       <c r="E3" t="n">
-        <v>119843.239233864</v>
+        <v>145298.112926209</v>
       </c>
       <c r="F3" t="n">
         <v>159263.577069521</v>
       </c>
       <c r="G3" t="n">
-        <v>39420.3378356572</v>
+        <v>13965.4641433116</v>
       </c>
       <c r="H3" t="n">
-        <v>11030.6779467244</v>
+        <v>3858.61468952341</v>
       </c>
       <c r="I3" t="n">
-        <v>41230.5855747097</v>
+        <v>40395.1621850334</v>
       </c>
       <c r="J3" t="n">
         <v>159263.57706952</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
@@ -3702,31 +4006,31 @@
         <v>4.80793437066517</v>
       </c>
       <c r="C4" t="n">
-        <v>49125.1300793501</v>
+        <v>13725.0758407245</v>
       </c>
       <c r="D4" t="n">
-        <v>30406.0586744665</v>
+        <v>36719.3513087231</v>
       </c>
       <c r="E4" t="n">
-        <v>119843.239233864</v>
+        <v>145298.112926209</v>
       </c>
       <c r="F4" t="n">
         <v>159263.577069521</v>
       </c>
       <c r="G4" t="n">
-        <v>39420.3378356572</v>
+        <v>13965.4641433116</v>
       </c>
       <c r="H4" t="n">
-        <v>9463.21996297752</v>
+        <v>3368.94981792932</v>
       </c>
       <c r="I4" t="n">
-        <v>39869.278637444</v>
+        <v>40088.3011266524</v>
       </c>
       <c r="J4" t="n">
         <v>159263.57706952</v>
       </c>
       <c r="K4" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
@@ -3737,31 +4041,31 @@
         <v>4.4499413023088</v>
       </c>
       <c r="C5" t="n">
-        <v>49125.1300793501</v>
+        <v>13725.0758407245</v>
       </c>
       <c r="D5" t="n">
-        <v>28049.3417717678</v>
+        <v>34629.5397660194</v>
       </c>
       <c r="E5" t="n">
-        <v>119843.239233864</v>
+        <v>145298.112926209</v>
       </c>
       <c r="F5" t="n">
         <v>159263.577069521</v>
       </c>
       <c r="G5" t="n">
-        <v>39420.3378356572</v>
+        <v>13965.4641433116</v>
       </c>
       <c r="H5" t="n">
-        <v>7112.03298735721</v>
+        <v>2634.45251053818</v>
       </c>
       <c r="I5" t="n">
-        <v>35161.374759125</v>
+        <v>37263.9922765576</v>
       </c>
       <c r="J5" t="n">
         <v>159263.57706952</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
@@ -3772,31 +4076,31 @@
         <v>5.38059004057213</v>
       </c>
       <c r="C6" t="n">
-        <v>82583.0763413991</v>
+        <v>25447.1740940197</v>
       </c>
       <c r="D6" t="n">
-        <v>41525.2047252415</v>
+        <v>42513.8018259814</v>
       </c>
       <c r="E6" t="n">
-        <v>167594.598747477</v>
+        <v>171379.812037707</v>
       </c>
       <c r="F6" t="n">
         <v>176256.554548285</v>
       </c>
       <c r="G6" t="n">
-        <v>8661.95580080792</v>
+        <v>4876.74251057804</v>
       </c>
       <c r="H6" t="n">
-        <v>3977.11701986346</v>
+        <v>1655.12276734998</v>
       </c>
       <c r="I6" t="n">
-        <v>45502.321745105</v>
+        <v>44168.9245933314</v>
       </c>
       <c r="J6" t="n">
-        <v>176250.859255794</v>
+        <v>176262.078667109</v>
       </c>
       <c r="K6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7">
@@ -3807,31 +4111,31 @@
         <v>5.443140022796</v>
       </c>
       <c r="C7" t="n">
-        <v>82583.0763413991</v>
+        <v>25447.1740940197</v>
       </c>
       <c r="D7" t="n">
-        <v>41936.9797382251</v>
+        <v>42878.94206584</v>
       </c>
       <c r="E7" t="n">
-        <v>167594.598747477</v>
+        <v>171379.812037707</v>
       </c>
       <c r="F7" t="n">
         <v>176256.554548285</v>
       </c>
       <c r="G7" t="n">
-        <v>8661.95580080792</v>
+        <v>4876.74251057804</v>
       </c>
       <c r="H7" t="n">
-        <v>1997.92987575229</v>
+        <v>1089.56842607499</v>
       </c>
       <c r="I7" t="n">
-        <v>43934.9096139774</v>
+        <v>43968.510491915</v>
       </c>
       <c r="J7" t="n">
-        <v>176250.859255794</v>
+        <v>176262.078667109</v>
       </c>
       <c r="K7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
@@ -3842,31 +4146,31 @@
         <v>5.58344786880406</v>
       </c>
       <c r="C8" t="n">
-        <v>82583.0763413991</v>
+        <v>25447.1740940197</v>
       </c>
       <c r="D8" t="n">
-        <v>42860.6453102615</v>
+        <v>43697.9997014131</v>
       </c>
       <c r="E8" t="n">
-        <v>167594.598747477</v>
+        <v>171379.812037707</v>
       </c>
       <c r="F8" t="n">
         <v>176256.554548285</v>
       </c>
       <c r="G8" t="n">
-        <v>8661.95580080792</v>
+        <v>4876.74251057804</v>
       </c>
       <c r="H8" t="n">
-        <v>1174.47155502368</v>
+        <v>937.789486713207</v>
       </c>
       <c r="I8" t="n">
-        <v>44035.1168652852</v>
+        <v>44635.7891881263</v>
       </c>
       <c r="J8" t="n">
-        <v>176250.859255794</v>
+        <v>176262.078667109</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9">
@@ -3877,31 +4181,31 @@
         <v>5.342092314263</v>
       </c>
       <c r="C9" t="n">
-        <v>82583.0763413991</v>
+        <v>25447.1740940197</v>
       </c>
       <c r="D9" t="n">
-        <v>41271.7689737485</v>
+        <v>42289.068444472</v>
       </c>
       <c r="E9" t="n">
-        <v>167594.598747477</v>
+        <v>171379.812037707</v>
       </c>
       <c r="F9" t="n">
         <v>176256.554548285</v>
       </c>
       <c r="G9" t="n">
-        <v>8661.95580080792</v>
+        <v>4876.74251057804</v>
       </c>
       <c r="H9" t="n">
-        <v>1506.74205767767</v>
+        <v>1199.78594926464</v>
       </c>
       <c r="I9" t="n">
-        <v>42778.5110314262</v>
+        <v>43488.8543937367</v>
       </c>
       <c r="J9" t="n">
-        <v>176250.859255794</v>
+        <v>176262.078667109</v>
       </c>
       <c r="K9" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
@@ -3912,31 +4216,31 @@
         <v>5.70746844016047</v>
       </c>
       <c r="C10" t="n">
-        <v>81221.7988661779</v>
+        <v>26164.5718386878</v>
       </c>
       <c r="D10" t="n">
-        <v>43378.075254515</v>
+        <v>44572.0138840372</v>
       </c>
       <c r="E10" t="n">
-        <v>179074.794268872</v>
+        <v>183220.579501351</v>
       </c>
       <c r="F10" t="n">
         <v>190343.400284413</v>
       </c>
       <c r="G10" t="n">
-        <v>11268.6060155413</v>
+        <v>7122.8207830624</v>
       </c>
       <c r="H10" t="n">
-        <v>2994.74138371424</v>
+        <v>1875.55781372929</v>
       </c>
       <c r="I10" t="n">
-        <v>46372.8166382293</v>
+        <v>46447.5716977665</v>
       </c>
       <c r="J10" t="n">
-        <v>190337.774506035</v>
+        <v>190348.852343934</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -3947,31 +4251,31 @@
         <v>5.83648748040312</v>
       </c>
       <c r="C11" t="n">
-        <v>81221.7988661779</v>
+        <v>26164.5718386878</v>
       </c>
       <c r="D11" t="n">
-        <v>44227.4250877558</v>
+        <v>45325.1722643533</v>
       </c>
       <c r="E11" t="n">
-        <v>179074.794268872</v>
+        <v>183220.579501351</v>
       </c>
       <c r="F11" t="n">
         <v>190343.400284413</v>
       </c>
       <c r="G11" t="n">
-        <v>11268.6060155413</v>
+        <v>7122.8207830624</v>
       </c>
       <c r="H11" t="n">
-        <v>3518.34258435948</v>
+        <v>2108.47071828168</v>
       </c>
       <c r="I11" t="n">
-        <v>47745.7676721153</v>
+        <v>47433.6429826349</v>
       </c>
       <c r="J11" t="n">
-        <v>190337.774506035</v>
+        <v>190348.852343934</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
@@ -3982,31 +4286,31 @@
         <v>6.08054477319217</v>
       </c>
       <c r="C12" t="n">
-        <v>81221.7988661779</v>
+        <v>26164.5718386878</v>
       </c>
       <c r="D12" t="n">
-        <v>45834.0873334344</v>
+        <v>46749.8751221299</v>
       </c>
       <c r="E12" t="n">
-        <v>179074.794268872</v>
+        <v>183220.579501351</v>
       </c>
       <c r="F12" t="n">
         <v>190343.400284413</v>
       </c>
       <c r="G12" t="n">
-        <v>11268.6060155413</v>
+        <v>7122.8207830624</v>
       </c>
       <c r="H12" t="n">
-        <v>3077.5456596134</v>
+        <v>1898.52466292183</v>
       </c>
       <c r="I12" t="n">
-        <v>48911.6329930478</v>
+        <v>48648.3997850517</v>
       </c>
       <c r="J12" t="n">
-        <v>190337.774506035</v>
+        <v>190348.852343934</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
@@ -4017,31 +4321,31 @@
         <v>6.05033413297322</v>
       </c>
       <c r="C13" t="n">
-        <v>81221.7988661779</v>
+        <v>26164.5718386878</v>
       </c>
       <c r="D13" t="n">
-        <v>45635.2065931669</v>
+        <v>46573.5182308306</v>
       </c>
       <c r="E13" t="n">
-        <v>179074.794268872</v>
+        <v>183220.579501351</v>
       </c>
       <c r="F13" t="n">
         <v>190343.400284413</v>
       </c>
       <c r="G13" t="n">
-        <v>11268.6060155413</v>
+        <v>7122.8207830624</v>
       </c>
       <c r="H13" t="n">
-        <v>1672.350609476</v>
+        <v>1245.71964764972</v>
       </c>
       <c r="I13" t="n">
-        <v>47307.5572026429</v>
+        <v>47819.2378784803</v>
       </c>
       <c r="J13" t="n">
-        <v>190337.774506035</v>
+        <v>190348.852343934</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
@@ -4052,31 +4356,31 @@
         <v>9.53952007842567</v>
       </c>
       <c r="C14" t="n">
-        <v>82632.3919182773</v>
+        <v>29010.7890771903</v>
       </c>
       <c r="D14" t="n">
-        <v>68914.8375150349</v>
+        <v>67537.1550449571</v>
       </c>
       <c r="E14" t="n">
-        <v>260928.557892218</v>
+        <v>257086.135046193</v>
       </c>
       <c r="F14" t="n">
         <v>251634.951980158</v>
       </c>
       <c r="G14" t="n">
-        <v>-9293.60591206074</v>
+        <v>-5451.18306603513</v>
       </c>
       <c r="H14" t="n">
-        <v>-697.242566052701</v>
+        <v>150.055672465379</v>
       </c>
       <c r="I14" t="n">
-        <v>68217.5949489822</v>
+        <v>67687.2107174225</v>
       </c>
       <c r="J14" t="n">
-        <v>251629.25416935</v>
+        <v>251640.118150242</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
@@ -4087,31 +4391,31 @@
         <v>9.78559471146319</v>
       </c>
       <c r="C15" t="n">
-        <v>82632.3919182773</v>
+        <v>29010.7890771903</v>
       </c>
       <c r="D15" t="n">
-        <v>70534.7801850634</v>
+        <v>68973.6342786178</v>
       </c>
       <c r="E15" t="n">
-        <v>260928.557892218</v>
+        <v>257086.135046193</v>
       </c>
       <c r="F15" t="n">
         <v>251634.951980158</v>
       </c>
       <c r="G15" t="n">
-        <v>-9293.60591206074</v>
+        <v>-5451.18306603513</v>
       </c>
       <c r="H15" t="n">
-        <v>-2296.11318212995</v>
+        <v>-892.833876189576</v>
       </c>
       <c r="I15" t="n">
-        <v>68238.6670029334</v>
+        <v>68080.8004024282</v>
       </c>
       <c r="J15" t="n">
-        <v>251629.25416935</v>
+        <v>251640.118150242</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
@@ -4122,31 +4426,31 @@
         <v>8.28544530288843</v>
       </c>
       <c r="C16" t="n">
-        <v>82632.3919182773</v>
+        <v>29010.7890771903</v>
       </c>
       <c r="D16" t="n">
-        <v>60659.0932506945</v>
+        <v>60216.398938243</v>
       </c>
       <c r="E16" t="n">
-        <v>260928.557892218</v>
+        <v>257086.135046193</v>
       </c>
       <c r="F16" t="n">
         <v>251634.951980158</v>
       </c>
       <c r="G16" t="n">
-        <v>-9293.60591206074</v>
+        <v>-5451.18306603513</v>
       </c>
       <c r="H16" t="n">
-        <v>-3124.26123875574</v>
+        <v>-1882.94899831514</v>
       </c>
       <c r="I16" t="n">
-        <v>57534.8320119387</v>
+        <v>58333.4499399278</v>
       </c>
       <c r="J16" t="n">
-        <v>251629.25416935</v>
+        <v>251640.118150242</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
@@ -4157,31 +4461,31 @@
         <v>8.30986431856595</v>
       </c>
       <c r="C17" t="n">
-        <v>82632.3919182773</v>
+        <v>29010.7890771903</v>
       </c>
       <c r="D17" t="n">
-        <v>60819.8469414257</v>
+        <v>60358.9467843749</v>
       </c>
       <c r="E17" t="n">
-        <v>260928.557892218</v>
+        <v>257086.135046193</v>
       </c>
       <c r="F17" t="n">
         <v>251634.951980158</v>
       </c>
       <c r="G17" t="n">
-        <v>-9293.60591206074</v>
+        <v>-5451.18306603513</v>
       </c>
       <c r="H17" t="n">
-        <v>-3181.68673593008</v>
+        <v>-2820.28969391132</v>
       </c>
       <c r="I17" t="n">
-        <v>57638.1602054956</v>
+        <v>57538.6570904635</v>
       </c>
       <c r="J17" t="n">
-        <v>251629.25416935</v>
+        <v>251640.118150242</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
@@ -4192,31 +4496,31 @@
         <v>8.31857710615766</v>
       </c>
       <c r="C18" t="n">
-        <v>63309.5672237968</v>
+        <v>18817.7877936469</v>
       </c>
       <c r="D18" t="n">
-        <v>56632.808367486</v>
+        <v>58278.0699498789</v>
       </c>
       <c r="E18" t="n">
-        <v>221652.811985557</v>
+        <v>228786.35439177</v>
       </c>
       <c r="F18" t="n">
         <v>224198.537097338</v>
       </c>
       <c r="G18" t="n">
-        <v>2545.72511178124</v>
+        <v>-4587.81729443261</v>
       </c>
       <c r="H18" t="n">
-        <v>-2468.38967365296</v>
+        <v>-3704.85596297811</v>
       </c>
       <c r="I18" t="n">
-        <v>54164.4186938331</v>
+        <v>54573.2139869008</v>
       </c>
       <c r="J18" t="n">
-        <v>224193.826013358</v>
+        <v>224204.727107537</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
@@ -4227,31 +4531,31 @@
         <v>8.41842324782331</v>
       </c>
       <c r="C19" t="n">
-        <v>63309.5672237968</v>
+        <v>18817.7877936469</v>
       </c>
       <c r="D19" t="n">
-        <v>57290.1090543766</v>
+        <v>58860.9293340153</v>
       </c>
       <c r="E19" t="n">
-        <v>221652.811985557</v>
+        <v>228786.35439177</v>
       </c>
       <c r="F19" t="n">
         <v>224198.537097338</v>
       </c>
       <c r="G19" t="n">
-        <v>2545.72511178124</v>
+        <v>-4587.81729443261</v>
       </c>
       <c r="H19" t="n">
-        <v>-941.613576500779</v>
+        <v>-3034.90281383691</v>
       </c>
       <c r="I19" t="n">
-        <v>56348.4954778758</v>
+        <v>55826.0265201784</v>
       </c>
       <c r="J19" t="n">
-        <v>224193.826013358</v>
+        <v>224204.727107537</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
@@ -4262,31 +4566,31 @@
         <v>7.9351131285423</v>
       </c>
       <c r="C20" t="n">
-        <v>63309.5672237968</v>
+        <v>18817.7877936469</v>
       </c>
       <c r="D20" t="n">
-        <v>54108.4130160023</v>
+        <v>56039.5700529091</v>
       </c>
       <c r="E20" t="n">
-        <v>221652.811985557</v>
+        <v>228786.35439177</v>
       </c>
       <c r="F20" t="n">
         <v>224198.537097338</v>
       </c>
       <c r="G20" t="n">
-        <v>2545.72511178124</v>
+        <v>-4587.81729443261</v>
       </c>
       <c r="H20" t="n">
-        <v>1398.64155552647</v>
+        <v>-810.430246487713</v>
       </c>
       <c r="I20" t="n">
-        <v>55507.0545715288</v>
+        <v>55229.1398064213</v>
       </c>
       <c r="J20" t="n">
-        <v>224193.826013358</v>
+        <v>224204.727107537</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
@@ -4297,31 +4601,31 @@
         <v>7.86114663293979</v>
       </c>
       <c r="C21" t="n">
-        <v>63309.5672237968</v>
+        <v>18817.7877936469</v>
       </c>
       <c r="D21" t="n">
-        <v>53621.4815476916</v>
+        <v>55607.7850549672</v>
       </c>
       <c r="E21" t="n">
-        <v>221652.811985557</v>
+        <v>228786.35439177</v>
       </c>
       <c r="F21" t="n">
         <v>224198.537097338</v>
       </c>
       <c r="G21" t="n">
-        <v>2545.72511178124</v>
+        <v>-4587.81729443261</v>
       </c>
       <c r="H21" t="n">
-        <v>4552.37572242879</v>
+        <v>2968.5617390695</v>
       </c>
       <c r="I21" t="n">
-        <v>58173.8572701204</v>
+        <v>58576.3467940367</v>
       </c>
       <c r="J21" t="n">
-        <v>224193.826013358</v>
+        <v>224204.727107537</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
@@ -4332,31 +4636,31 @@
         <v>10.7925922531023</v>
       </c>
       <c r="C22" t="n">
-        <v>58171.3141041876</v>
+        <v>11154.2000079085</v>
       </c>
       <c r="D22" t="n">
-        <v>71790.9316005261</v>
+        <v>71117.5767268597</v>
       </c>
       <c r="E22" t="n">
-        <v>322071.718023313</v>
+        <v>315424.862263268</v>
       </c>
       <c r="F22" t="n">
         <v>345700.667134693</v>
       </c>
       <c r="G22" t="n">
-        <v>23628.94911138</v>
+        <v>30275.8048714257</v>
       </c>
       <c r="H22" t="n">
-        <v>8519.58892420618</v>
+        <v>8302.07314283471</v>
       </c>
       <c r="I22" t="n">
-        <v>80310.5205247323</v>
+        <v>79419.6498696944</v>
       </c>
       <c r="J22" t="n">
-        <v>345696.218437414</v>
+        <v>345707.626917051</v>
       </c>
       <c r="K22" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
@@ -4367,31 +4671,31 @@
         <v>12.5976412661378</v>
       </c>
       <c r="C23" t="n">
-        <v>58171.3141041876</v>
+        <v>11154.2000079085</v>
       </c>
       <c r="D23" t="n">
-        <v>83673.8139668009</v>
+        <v>81654.6865091989</v>
       </c>
       <c r="E23" t="n">
-        <v>322071.718023313</v>
+        <v>315424.862263268</v>
       </c>
       <c r="F23" t="n">
         <v>345700.667134693</v>
       </c>
       <c r="G23" t="n">
-        <v>23628.94911138</v>
+        <v>30275.8048714257</v>
       </c>
       <c r="H23" t="n">
-        <v>9061.08867664467</v>
+        <v>10142.9249125853</v>
       </c>
       <c r="I23" t="n">
-        <v>92734.9026434455</v>
+        <v>91797.6114217841</v>
       </c>
       <c r="J23" t="n">
-        <v>345696.218437414</v>
+        <v>345707.626917051</v>
       </c>
       <c r="K23" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
@@ -4402,31 +4706,31 @@
         <v>12.7210394164864</v>
       </c>
       <c r="C24" t="n">
-        <v>58171.3141041876</v>
+        <v>11154.2000079085</v>
       </c>
       <c r="D24" t="n">
-        <v>84486.1607198355</v>
+        <v>82375.0325207312</v>
       </c>
       <c r="E24" t="n">
-        <v>322071.718023313</v>
+        <v>315424.862263268</v>
       </c>
       <c r="F24" t="n">
         <v>345700.667134693</v>
       </c>
       <c r="G24" t="n">
-        <v>23628.94911138</v>
+        <v>30275.8048714257</v>
       </c>
       <c r="H24" t="n">
-        <v>6176.87497974429</v>
+        <v>8491.11704832118</v>
       </c>
       <c r="I24" t="n">
-        <v>90663.0356995798</v>
+        <v>90866.1495690523</v>
       </c>
       <c r="J24" t="n">
-        <v>345696.218437414</v>
+        <v>345707.626917051</v>
       </c>
       <c r="K24" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25">
@@ -4437,31 +4741,31 @@
         <v>12.3617351065656</v>
       </c>
       <c r="C25" t="n">
-        <v>58171.3141041876</v>
+        <v>11154.2000079085</v>
       </c>
       <c r="D25" t="n">
-        <v>82120.8117361508</v>
+        <v>80277.5665064779</v>
       </c>
       <c r="E25" t="n">
-        <v>322071.718023313</v>
+        <v>315424.862263268</v>
       </c>
       <c r="F25" t="n">
         <v>345700.667134693</v>
       </c>
       <c r="G25" t="n">
-        <v>23628.94911138</v>
+        <v>30275.8048714257</v>
       </c>
       <c r="H25" t="n">
-        <v>-133.052166494987</v>
+        <v>3346.64955004247</v>
       </c>
       <c r="I25" t="n">
-        <v>81987.7595696558</v>
+        <v>83624.2160565204</v>
       </c>
       <c r="J25" t="n">
-        <v>345696.218437414</v>
+        <v>345707.626917051</v>
       </c>
       <c r="K25" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26">
@@ -4472,31 +4776,31 @@
         <v>17.8999646133774</v>
       </c>
       <c r="C26" t="n">
-        <v>74739.9225613996</v>
+        <v>39606.8490644923</v>
       </c>
       <c r="D26" t="n">
-        <v>122219.140233815</v>
+        <v>118557.913772955</v>
       </c>
       <c r="E26" t="n">
-        <v>546317.29813377</v>
+        <v>525167.054028109</v>
       </c>
       <c r="F26" t="n">
         <v>519487.679229645</v>
       </c>
       <c r="G26" t="n">
-        <v>-26829.6189041246</v>
+        <v>-5679.37479846447</v>
       </c>
       <c r="H26" t="n">
-        <v>-9868.69276207316</v>
+        <v>-5290.47758225091</v>
       </c>
       <c r="I26" t="n">
-        <v>112350.447471742</v>
+        <v>113267.436190705</v>
       </c>
       <c r="J26" t="n">
-        <v>519482.384450557</v>
+        <v>519491.781074221</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27">
@@ -4507,31 +4811,31 @@
         <v>19.0629017039228</v>
       </c>
       <c r="C27" t="n">
-        <v>74739.9225613996</v>
+        <v>39606.8490644923</v>
       </c>
       <c r="D27" t="n">
-        <v>129874.912762169</v>
+        <v>125346.646768313</v>
       </c>
       <c r="E27" t="n">
-        <v>546317.29813377</v>
+        <v>525167.054028109</v>
       </c>
       <c r="F27" t="n">
         <v>519487.679229645</v>
       </c>
       <c r="G27" t="n">
-        <v>-26829.6189041246</v>
+        <v>-5679.37479846447</v>
       </c>
       <c r="H27" t="n">
-        <v>-12498.9632637964</v>
+        <v>-7196.66469765669</v>
       </c>
       <c r="I27" t="n">
-        <v>117375.949498372</v>
+        <v>118149.982070656</v>
       </c>
       <c r="J27" t="n">
-        <v>519482.384450557</v>
+        <v>519491.781074221</v>
       </c>
       <c r="K27" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28">
@@ -4542,31 +4846,31 @@
         <v>21.0096536536455</v>
       </c>
       <c r="C28" t="n">
-        <v>74739.9225613996</v>
+        <v>39606.8490644923</v>
       </c>
       <c r="D28" t="n">
-        <v>142690.644771555</v>
+        <v>136710.958133306</v>
       </c>
       <c r="E28" t="n">
-        <v>546317.29813377</v>
+        <v>525167.054028109</v>
       </c>
       <c r="F28" t="n">
         <v>519487.679229645</v>
       </c>
       <c r="G28" t="n">
-        <v>-26829.6189041246</v>
+        <v>-5679.37479846447</v>
       </c>
       <c r="H28" t="n">
-        <v>-8023.8636716648</v>
+        <v>-2371.91179617488</v>
       </c>
       <c r="I28" t="n">
-        <v>134666.78109989</v>
+        <v>134339.046337131</v>
       </c>
       <c r="J28" t="n">
-        <v>519482.384450557</v>
+        <v>519491.781074221</v>
       </c>
       <c r="K28" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29">
@@ -4577,31 +4881,31 @@
         <v>22.3527758631837</v>
       </c>
       <c r="C29" t="n">
-        <v>74739.9225613996</v>
+        <v>39606.8490644923</v>
       </c>
       <c r="D29" t="n">
-        <v>151532.600366231</v>
+        <v>144551.535353535</v>
       </c>
       <c r="E29" t="n">
-        <v>546317.29813377</v>
+        <v>525167.054028109</v>
       </c>
       <c r="F29" t="n">
         <v>519487.679229645</v>
       </c>
       <c r="G29" t="n">
-        <v>-26829.6189041246</v>
+        <v>-5679.37479846447</v>
       </c>
       <c r="H29" t="n">
-        <v>3556.60601432172</v>
+        <v>9183.78112219452</v>
       </c>
       <c r="I29" t="n">
-        <v>155089.206380552</v>
+        <v>153735.316475729</v>
       </c>
       <c r="J29" t="n">
-        <v>519482.384450557</v>
+        <v>519491.781074221</v>
       </c>
       <c r="K29" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -4612,31 +4916,31 @@
         <v>18.2354220614974</v>
       </c>
       <c r="C30" t="n">
-        <v>38839.005855673</v>
+        <v>27453.7283112936</v>
       </c>
       <c r="D30" t="n">
-        <v>116541.610099826</v>
+        <v>117974.499137686</v>
       </c>
       <c r="E30" t="n">
-        <v>442718.363660917</v>
+        <v>451105.485848262</v>
       </c>
       <c r="F30" t="n">
         <v>556536.249525386</v>
       </c>
       <c r="G30" t="n">
-        <v>113817.885864469</v>
+        <v>105430.763677124</v>
       </c>
       <c r="H30" t="n">
-        <v>22242.4457941631</v>
+        <v>27470.4140574515</v>
       </c>
       <c r="I30" t="n">
-        <v>138784.05589399</v>
+        <v>145444.913195138</v>
       </c>
       <c r="J30" t="n">
-        <v>556532.788039215</v>
+        <v>556541.572095066</v>
       </c>
       <c r="K30" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31">
@@ -4647,31 +4951,31 @@
         <v>16.7772301158381</v>
       </c>
       <c r="C31" t="n">
-        <v>38839.005855673</v>
+        <v>27453.7283112936</v>
       </c>
       <c r="D31" t="n">
-        <v>106942.134832072</v>
+        <v>109462.193652255</v>
       </c>
       <c r="E31" t="n">
-        <v>442718.363660917</v>
+        <v>451105.485848262</v>
       </c>
       <c r="F31" t="n">
         <v>556536.249525386</v>
       </c>
       <c r="G31" t="n">
-        <v>113817.885864469</v>
+        <v>105430.763677124</v>
       </c>
       <c r="H31" t="n">
-        <v>32201.2458262643</v>
+        <v>34340.5102332541</v>
       </c>
       <c r="I31" t="n">
-        <v>139143.380658337</v>
+        <v>143802.703885509</v>
       </c>
       <c r="J31" t="n">
-        <v>556532.788039215</v>
+        <v>556541.572095066</v>
       </c>
       <c r="K31" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
@@ -4682,31 +4986,31 @@
         <v>17.1873975288238</v>
       </c>
       <c r="C32" t="n">
-        <v>38839.005855673</v>
+        <v>27453.7283112936</v>
       </c>
       <c r="D32" t="n">
-        <v>109642.322518828</v>
+        <v>111856.576867645</v>
       </c>
       <c r="E32" t="n">
-        <v>442718.363660917</v>
+        <v>451105.485848262</v>
       </c>
       <c r="F32" t="n">
         <v>556536.249525386</v>
       </c>
       <c r="G32" t="n">
-        <v>113817.885864469</v>
+        <v>105430.763677124</v>
       </c>
       <c r="H32" t="n">
-        <v>33433.0061106252</v>
+        <v>29794.0696496022</v>
       </c>
       <c r="I32" t="n">
-        <v>143075.328629453</v>
+        <v>141650.646517247</v>
       </c>
       <c r="J32" t="n">
-        <v>556532.788039215</v>
+        <v>556541.572095066</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33">
@@ -4717,31 +5021,31 @@
         <v>17.1797983675893</v>
       </c>
       <c r="C33" t="n">
-        <v>38839.005855673</v>
+        <v>27453.7283112936</v>
       </c>
       <c r="D33" t="n">
-        <v>109592.29621019</v>
+        <v>111812.216190676</v>
       </c>
       <c r="E33" t="n">
-        <v>442718.363660917</v>
+        <v>451105.485848262</v>
       </c>
       <c r="F33" t="n">
         <v>556536.249525386</v>
       </c>
       <c r="G33" t="n">
-        <v>113817.885864469</v>
+        <v>105430.763677124</v>
       </c>
       <c r="H33" t="n">
-        <v>25937.7266472458</v>
+        <v>13831.092306496</v>
       </c>
       <c r="I33" t="n">
-        <v>135530.022857436</v>
+        <v>125643.308497172</v>
       </c>
       <c r="J33" t="n">
-        <v>556532.788039215</v>
+        <v>556541.572095066</v>
       </c>
       <c r="K33" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
@@ -4749,34 +5053,34 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>8.62478489938601</v>
+        <v>20.2774903405351</v>
       </c>
       <c r="C34" t="n">
-        <v>147942.942650346</v>
+        <v>128397.175607652</v>
       </c>
       <c r="D34" t="n">
-        <v>77238.9393433287</v>
+        <v>151006.282848748</v>
       </c>
       <c r="E34" t="n">
-        <v>546276.521829446</v>
+        <v>625524.551144286</v>
       </c>
       <c r="F34" t="n">
         <v>544509.487434123</v>
       </c>
       <c r="G34" t="n">
-        <v>-1767.03439532255</v>
+        <v>-81015.0637101628</v>
       </c>
       <c r="H34" t="n">
-        <v>9715.40743612611</v>
+        <v>-13548.4217960646</v>
       </c>
       <c r="I34" t="n">
-        <v>86954.3467794548</v>
+        <v>137457.861052683</v>
       </c>
       <c r="J34" t="n">
-        <v>544500.45451711</v>
+        <v>544504.670698627</v>
       </c>
       <c r="K34" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35">
@@ -4784,34 +5088,34 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>10.1640894429445</v>
+        <v>20.6885004045919</v>
       </c>
       <c r="C35" t="n">
-        <v>147942.942650346</v>
+        <v>128397.175607652</v>
       </c>
       <c r="D35" t="n">
-        <v>87372.3898396214</v>
+        <v>153405.585103333</v>
       </c>
       <c r="E35" t="n">
-        <v>546276.521829446</v>
+        <v>625524.551144286</v>
       </c>
       <c r="F35" t="n">
         <v>544509.487434123</v>
       </c>
       <c r="G35" t="n">
-        <v>-1767.03439532255</v>
+        <v>-81015.0637101628</v>
       </c>
       <c r="H35" t="n">
-        <v>-837.289954005772</v>
+        <v>-27182.846763229</v>
       </c>
       <c r="I35" t="n">
-        <v>86535.0998856156</v>
+        <v>126222.738340104</v>
       </c>
       <c r="J35" t="n">
-        <v>544500.45451711</v>
+        <v>544504.670698627</v>
       </c>
       <c r="K35" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36">
@@ -4822,31 +5126,31 @@
         <v>21.9775448122226</v>
       </c>
       <c r="C36" t="n">
-        <v>147942.942650346</v>
+        <v>128397.175607652</v>
       </c>
       <c r="D36" t="n">
-        <v>165141.968105142</v>
+        <v>160930.479075421</v>
       </c>
       <c r="E36" t="n">
-        <v>546276.521829446</v>
+        <v>625524.551144286</v>
       </c>
       <c r="F36" t="n">
         <v>544509.487434123</v>
       </c>
       <c r="G36" t="n">
-        <v>-1767.03439532255</v>
+        <v>-81015.0637101628</v>
       </c>
       <c r="H36" t="n">
-        <v>-5720.36552314985</v>
+        <v>-27072.1825949969</v>
       </c>
       <c r="I36" t="n">
-        <v>159421.602581992</v>
+        <v>133858.296480424</v>
       </c>
       <c r="J36" t="n">
-        <v>544500.45451711</v>
+        <v>544504.670698627</v>
       </c>
       <c r="K36" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37">
@@ -4854,34 +5158,34 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>29.7825270850367</v>
+        <v>21.8493623216283</v>
       </c>
       <c r="C37" t="n">
-        <v>147942.942650346</v>
+        <v>128397.175607652</v>
       </c>
       <c r="D37" t="n">
-        <v>216523.224541354</v>
+        <v>160182.204116785</v>
       </c>
       <c r="E37" t="n">
-        <v>546276.521829446</v>
+        <v>625524.551144286</v>
       </c>
       <c r="F37" t="n">
         <v>544509.487434123</v>
       </c>
       <c r="G37" t="n">
-        <v>-1767.03439532255</v>
+        <v>-81015.0637101628</v>
       </c>
       <c r="H37" t="n">
-        <v>-4933.81927130614</v>
+        <v>-13216.4292913686</v>
       </c>
       <c r="I37" t="n">
-        <v>211589.405270047</v>
+        <v>146965.774825416</v>
       </c>
       <c r="J37" t="n">
-        <v>544500.45451711</v>
+        <v>544504.670698627</v>
       </c>
       <c r="K37" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38">
@@ -4892,31 +5196,31 @@
         <v>24.4157035732447</v>
       </c>
       <c r="C38" t="n">
-        <v>128219.84883679</v>
+        <v>26395.5725533501</v>
       </c>
       <c r="D38" t="n">
-        <v>176860.379776084</v>
+        <v>153831.058682149</v>
       </c>
       <c r="E38" t="n">
-        <v>668840.6714362</v>
+        <v>581095.05050938</v>
       </c>
       <c r="F38" t="n">
         <v>684415.268214152</v>
       </c>
       <c r="G38" t="n">
-        <v>15574.5967779516</v>
+        <v>103320.217704772</v>
       </c>
       <c r="H38" t="n">
-        <v>1522.34880152536</v>
+        <v>14384.4131476561</v>
       </c>
       <c r="I38" t="n">
-        <v>178382.72857761</v>
+        <v>168215.471829805</v>
       </c>
       <c r="J38" t="n">
-        <v>684407.24246385</v>
+        <v>684420.697070713</v>
       </c>
       <c r="K38" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39">
@@ -4927,31 +5231,31 @@
         <v>24.7871171457485</v>
       </c>
       <c r="C39" t="n">
-        <v>128219.84883679</v>
+        <v>26395.5725533501</v>
       </c>
       <c r="D39" t="n">
-        <v>179305.445677026</v>
+        <v>155999.213430226</v>
       </c>
       <c r="E39" t="n">
-        <v>668840.6714362</v>
+        <v>581095.05050938</v>
       </c>
       <c r="F39" t="n">
         <v>684415.268214152</v>
       </c>
       <c r="G39" t="n">
-        <v>15574.5967779516</v>
+        <v>103320.217704772</v>
       </c>
       <c r="H39" t="n">
-        <v>5052.53361281277</v>
+        <v>30003.5495203368</v>
       </c>
       <c r="I39" t="n">
-        <v>184357.979289838</v>
+        <v>186002.762950563</v>
       </c>
       <c r="J39" t="n">
-        <v>684407.24246385</v>
+        <v>684420.697070713</v>
       </c>
       <c r="K39" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40">
@@ -4962,31 +5266,31 @@
         <v>21.7294243937836</v>
       </c>
       <c r="C40" t="n">
-        <v>128219.84883679</v>
+        <v>26395.5725533501</v>
       </c>
       <c r="D40" t="n">
-        <v>159176.239754408</v>
+        <v>138149.701325325</v>
       </c>
       <c r="E40" t="n">
-        <v>668840.6714362</v>
+        <v>581095.05050938</v>
       </c>
       <c r="F40" t="n">
         <v>684415.268214152</v>
       </c>
       <c r="G40" t="n">
-        <v>15574.5967779516</v>
+        <v>103320.217704772</v>
       </c>
       <c r="H40" t="n">
-        <v>5656.73516255609</v>
+        <v>33640.9798266735</v>
       </c>
       <c r="I40" t="n">
-        <v>164832.974916964</v>
+        <v>171790.681151999</v>
       </c>
       <c r="J40" t="n">
-        <v>684407.24246385</v>
+        <v>684420.697070713</v>
       </c>
       <c r="K40" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41">
@@ -4997,31 +5301,31 @@
         <v>20.8669731402835</v>
       </c>
       <c r="C41" t="n">
-        <v>128219.84883679</v>
+        <v>26395.5725533501</v>
       </c>
       <c r="D41" t="n">
-        <v>153498.606228683</v>
+        <v>133115.07707168</v>
       </c>
       <c r="E41" t="n">
-        <v>668840.6714362</v>
+        <v>581095.05050938</v>
       </c>
       <c r="F41" t="n">
         <v>684415.268214152</v>
       </c>
       <c r="G41" t="n">
-        <v>15574.5967779516</v>
+        <v>103320.217704772</v>
       </c>
       <c r="H41" t="n">
-        <v>3334.95345075533</v>
+        <v>25296.7040666662</v>
       </c>
       <c r="I41" t="n">
-        <v>156833.559679438</v>
+        <v>158411.781138346</v>
       </c>
       <c r="J41" t="n">
-        <v>684407.24246385</v>
+        <v>684420.697070713</v>
       </c>
       <c r="K41" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42">
@@ -5032,31 +5336,31 @@
         <v>17.5824264602258</v>
       </c>
       <c r="C42" t="n">
-        <v>128232.208017835</v>
+        <v>125401.429608985</v>
       </c>
       <c r="D42" t="n">
-        <v>131878.704924593</v>
+        <v>134647.121431668</v>
       </c>
       <c r="E42" t="n">
-        <v>535913.558271168</v>
+        <v>546036.041601323</v>
       </c>
       <c r="F42" t="n">
         <v>521396.32620534</v>
       </c>
       <c r="G42" t="n">
-        <v>-14517.2320658274</v>
+        <v>-24639.7153959827</v>
       </c>
       <c r="H42" t="n">
-        <v>-1912.81152258952</v>
+        <v>4970.72224031492</v>
       </c>
       <c r="I42" t="n">
-        <v>129965.893402003</v>
+        <v>139617.843671983</v>
       </c>
       <c r="J42" t="n">
-        <v>521388.299823912</v>
+        <v>521391.810378756</v>
       </c>
       <c r="K42" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43">
@@ -5067,31 +5371,31 @@
         <v>18.4498584482223</v>
       </c>
       <c r="C43" t="n">
-        <v>128232.208017835</v>
+        <v>125401.429608985</v>
       </c>
       <c r="D43" t="n">
-        <v>137589.127300754</v>
+        <v>139710.821098671</v>
       </c>
       <c r="E43" t="n">
-        <v>535913.558271168</v>
+        <v>546036.041601323</v>
       </c>
       <c r="F43" t="n">
         <v>521396.32620534</v>
       </c>
       <c r="G43" t="n">
-        <v>-14517.2320658274</v>
+        <v>-24639.7153959827</v>
       </c>
       <c r="H43" t="n">
-        <v>-4699.31874761717</v>
+        <v>-7612.38250860827</v>
       </c>
       <c r="I43" t="n">
-        <v>132889.808553137</v>
+        <v>132098.438590063</v>
       </c>
       <c r="J43" t="n">
-        <v>521388.299823912</v>
+        <v>521391.810378756</v>
       </c>
       <c r="K43" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44">
@@ -5102,31 +5406,31 @@
         <v>18.2833403621097</v>
       </c>
       <c r="C44" t="n">
-        <v>128232.208017835</v>
+        <v>125401.429608985</v>
       </c>
       <c r="D44" t="n">
-        <v>136492.916164744</v>
+        <v>138738.759209248</v>
       </c>
       <c r="E44" t="n">
-        <v>535913.558271168</v>
+        <v>546036.041601323</v>
       </c>
       <c r="F44" t="n">
         <v>521396.32620534</v>
       </c>
       <c r="G44" t="n">
-        <v>-14517.2320658274</v>
+        <v>-24639.7153959827</v>
       </c>
       <c r="H44" t="n">
-        <v>-5024.56822432761</v>
+        <v>-12452.6101801033</v>
       </c>
       <c r="I44" t="n">
-        <v>131468.347940417</v>
+        <v>126286.149029144</v>
       </c>
       <c r="J44" t="n">
-        <v>521388.299823912</v>
+        <v>521391.810378756</v>
       </c>
       <c r="K44" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45">
@@ -5137,31 +5441,31 @@
         <v>17.2898766528343</v>
       </c>
       <c r="C45" t="n">
-        <v>128232.208017835</v>
+        <v>125401.429608985</v>
       </c>
       <c r="D45" t="n">
-        <v>129952.809881077</v>
+        <v>132939.339861736</v>
       </c>
       <c r="E45" t="n">
-        <v>535913.558271168</v>
+        <v>546036.041601323</v>
       </c>
       <c r="F45" t="n">
         <v>521396.32620534</v>
       </c>
       <c r="G45" t="n">
-        <v>-14517.2320658274</v>
+        <v>-24639.7153959827</v>
       </c>
       <c r="H45" t="n">
-        <v>-2888.55995272085</v>
+        <v>-9549.96077417027</v>
       </c>
       <c r="I45" t="n">
-        <v>127064.249928356</v>
+        <v>123389.379087566</v>
       </c>
       <c r="J45" t="n">
-        <v>521388.299823912</v>
+        <v>521391.810378756</v>
       </c>
       <c r="K45" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46">
@@ -5172,31 +5476,31 @@
         <v>23.3418536860815</v>
       </c>
       <c r="C46" t="n">
-        <v>98151.2383025452</v>
+        <v>80264.8300421062</v>
       </c>
       <c r="D46" t="n">
-        <v>163186.295972387</v>
+        <v>158828.458593414</v>
       </c>
       <c r="E46" t="n">
-        <v>617314.984061312</v>
+        <v>603896.212479168</v>
       </c>
       <c r="F46" t="n">
         <v>665272.422652768</v>
       </c>
       <c r="G46" t="n">
-        <v>47957.4385914553</v>
+        <v>61376.2101735999</v>
       </c>
       <c r="H46" t="n">
-        <v>1708.70606720311</v>
+        <v>1095.5657091909</v>
       </c>
       <c r="I46" t="n">
-        <v>164895.00203959</v>
+        <v>159924.024302605</v>
       </c>
       <c r="J46" t="n">
-        <v>665265.932366621</v>
+        <v>665272.440590087</v>
       </c>
       <c r="K46" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47">
@@ -5207,31 +5511,31 @@
         <v>22.8377542054028</v>
       </c>
       <c r="C47" t="n">
-        <v>98151.2383025452</v>
+        <v>80264.8300421062</v>
       </c>
       <c r="D47" t="n">
-        <v>159867.740749484</v>
+        <v>155885.739846848</v>
       </c>
       <c r="E47" t="n">
-        <v>617314.984061312</v>
+        <v>603896.212479168</v>
       </c>
       <c r="F47" t="n">
         <v>665272.422652768</v>
       </c>
       <c r="G47" t="n">
-        <v>47957.4385914553</v>
+        <v>61376.2101735999</v>
       </c>
       <c r="H47" t="n">
-        <v>7659.22487882228</v>
+        <v>11053.1728299509</v>
       </c>
       <c r="I47" t="n">
-        <v>167526.965628306</v>
+        <v>166938.912676799</v>
       </c>
       <c r="J47" t="n">
-        <v>665265.932366621</v>
+        <v>665272.440590087</v>
       </c>
       <c r="K47" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48">
@@ -5242,31 +5546,31 @@
         <v>20.405744928882</v>
       </c>
       <c r="C48" t="n">
-        <v>98151.2383025452</v>
+        <v>80264.8300421062</v>
       </c>
       <c r="D48" t="n">
-        <v>143857.493970652</v>
+        <v>141688.702229974</v>
       </c>
       <c r="E48" t="n">
-        <v>617314.984061312</v>
+        <v>603896.212479168</v>
       </c>
       <c r="F48" t="n">
         <v>665272.422652768</v>
       </c>
       <c r="G48" t="n">
-        <v>47957.4385914553</v>
+        <v>61376.2101735999</v>
       </c>
       <c r="H48" t="n">
-        <v>14962.9964821366</v>
+        <v>20322.8605881097</v>
       </c>
       <c r="I48" t="n">
-        <v>158820.490452789</v>
+        <v>162011.562818083</v>
       </c>
       <c r="J48" t="n">
-        <v>665265.932366621</v>
+        <v>665272.440590087</v>
       </c>
       <c r="K48" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49">
@@ -5277,31 +5581,31 @@
         <v>21.4000977455449</v>
       </c>
       <c r="C49" t="n">
-        <v>98151.2383025452</v>
+        <v>80264.8300421062</v>
       </c>
       <c r="D49" t="n">
-        <v>150403.45336879</v>
+        <v>147493.311808932</v>
       </c>
       <c r="E49" t="n">
-        <v>617314.984061312</v>
+        <v>603896.212479168</v>
       </c>
       <c r="F49" t="n">
         <v>665272.422652768</v>
       </c>
       <c r="G49" t="n">
-        <v>47957.4385914553</v>
+        <v>61376.2101735999</v>
       </c>
       <c r="H49" t="n">
-        <v>23620.0208771462</v>
+        <v>28904.6289836674</v>
       </c>
       <c r="I49" t="n">
-        <v>174023.474245936</v>
+        <v>176397.9407926</v>
       </c>
       <c r="J49" t="n">
-        <v>665265.932366621</v>
+        <v>665272.440590087</v>
       </c>
       <c r="K49" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50">
@@ -5312,31 +5616,31 @@
         <v>22.0902856409605</v>
       </c>
       <c r="C50" t="n">
-        <v>134195.912179708</v>
+        <v>128521.740623193</v>
       </c>
       <c r="D50" t="n">
-        <v>162864.523134054</v>
+        <v>161614.663378934</v>
       </c>
       <c r="E50" t="n">
-        <v>667494.339060606</v>
+        <v>660678.746327874</v>
       </c>
       <c r="F50" t="n">
         <v>797136.254689931</v>
       </c>
       <c r="G50" t="n">
-        <v>129641.915629325</v>
+        <v>136457.508362056</v>
       </c>
       <c r="H50" t="n">
-        <v>33630.298063851</v>
+        <v>36798.4780166239</v>
       </c>
       <c r="I50" t="n">
-        <v>196494.821197905</v>
+        <v>198413.141395558</v>
       </c>
       <c r="J50" t="n">
-        <v>797127.923769856</v>
+        <v>797131.425442451</v>
       </c>
       <c r="K50" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51">
@@ -5347,31 +5651,31 @@
         <v>23.2894702798281</v>
       </c>
       <c r="C51" t="n">
-        <v>134195.912179708</v>
+        <v>128521.740623193</v>
       </c>
       <c r="D51" t="n">
-        <v>170758.918187152</v>
+        <v>168614.994172054</v>
       </c>
       <c r="E51" t="n">
-        <v>667494.339060606</v>
+        <v>660678.746327874</v>
       </c>
       <c r="F51" t="n">
         <v>797136.254689931</v>
       </c>
       <c r="G51" t="n">
-        <v>129641.915629325</v>
+        <v>136457.508362056</v>
       </c>
       <c r="H51" t="n">
-        <v>37145.6481839175</v>
+        <v>38881.8943346146</v>
       </c>
       <c r="I51" t="n">
-        <v>207904.56637107</v>
+        <v>207496.888506668</v>
       </c>
       <c r="J51" t="n">
-        <v>797127.923769856</v>
+        <v>797131.425442451</v>
       </c>
       <c r="K51" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52">
@@ -5382,31 +5686,31 @@
         <v>23.6645841822058</v>
       </c>
       <c r="C52" t="n">
-        <v>134195.912179708</v>
+        <v>128521.740623193</v>
       </c>
       <c r="D52" t="n">
-        <v>173228.343861313</v>
+        <v>170804.749874913</v>
       </c>
       <c r="E52" t="n">
-        <v>667494.339060606</v>
+        <v>660678.746327874</v>
       </c>
       <c r="F52" t="n">
         <v>797136.254689931</v>
       </c>
       <c r="G52" t="n">
-        <v>129641.915629325</v>
+        <v>136457.508362056</v>
       </c>
       <c r="H52" t="n">
-        <v>34166.0712373457</v>
+        <v>35154.8779376395</v>
       </c>
       <c r="I52" t="n">
-        <v>207394.415098658</v>
+        <v>205959.627812552</v>
       </c>
       <c r="J52" t="n">
-        <v>797127.923769856</v>
+        <v>797131.425442451</v>
       </c>
       <c r="K52" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53">
@@ -5417,31 +5721,31 @@
         <v>21.7527611844481</v>
       </c>
       <c r="C53" t="n">
-        <v>134195.912179708</v>
+        <v>128521.740623193</v>
       </c>
       <c r="D53" t="n">
-        <v>160642.553878088</v>
+        <v>159644.338901974</v>
       </c>
       <c r="E53" t="n">
-        <v>667494.339060606</v>
+        <v>660678.746327874</v>
       </c>
       <c r="F53" t="n">
         <v>797136.254689931</v>
       </c>
       <c r="G53" t="n">
-        <v>129641.915629325</v>
+        <v>136457.508362056</v>
       </c>
       <c r="H53" t="n">
-        <v>24691.5672241356</v>
+        <v>25617.4288256986</v>
       </c>
       <c r="I53" t="n">
-        <v>185334.121102223</v>
+        <v>185261.767727673</v>
       </c>
       <c r="J53" t="n">
-        <v>797127.923769856</v>
+        <v>797131.425442451</v>
       </c>
       <c r="K53" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54">
@@ -5452,31 +5756,31 @@
         <v>23.1415852874408</v>
       </c>
       <c r="C54" t="n">
-        <v>247550.26633692</v>
+        <v>243972.349468956</v>
       </c>
       <c r="D54" t="n">
-        <v>194684.462284373</v>
+        <v>191896.751361747</v>
       </c>
       <c r="E54" t="n">
-        <v>753792.352577307</v>
+        <v>745466.662273713</v>
       </c>
       <c r="F54" t="n">
         <v>772847.311527028</v>
       </c>
       <c r="G54" t="n">
-        <v>19054.9589497207</v>
+        <v>27380.6492533146</v>
       </c>
       <c r="H54" t="n">
-        <v>8722.13614428719</v>
+        <v>10269.5469987918</v>
       </c>
       <c r="I54" t="n">
-        <v>203406.59842866</v>
+        <v>202166.298360538</v>
       </c>
       <c r="J54" t="n">
-        <v>772833.192127055</v>
+        <v>772830.885796693</v>
       </c>
       <c r="K54" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55">
@@ -5487,31 +5791,31 @@
         <v>20.1906188003574</v>
       </c>
       <c r="C55" t="n">
-        <v>247550.26633692</v>
+        <v>243972.349468956</v>
       </c>
       <c r="D55" t="n">
-        <v>175257.849832525</v>
+        <v>174670.261879275</v>
       </c>
       <c r="E55" t="n">
-        <v>753792.352577307</v>
+        <v>745466.662273713</v>
       </c>
       <c r="F55" t="n">
         <v>772847.311527028</v>
       </c>
       <c r="G55" t="n">
-        <v>19054.9589497207</v>
+        <v>27380.6492533146</v>
       </c>
       <c r="H55" t="n">
-        <v>749.593209607771</v>
+        <v>2758.99782081036</v>
       </c>
       <c r="I55" t="n">
-        <v>176007.443042133</v>
+        <v>177429.259700085</v>
       </c>
       <c r="J55" t="n">
-        <v>772833.192127055</v>
+        <v>772830.885796693</v>
       </c>
       <c r="K55" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56">
@@ -5522,31 +5826,31 @@
         <v>23.399882817857</v>
       </c>
       <c r="C56" t="n">
-        <v>247550.26633692</v>
+        <v>243972.349468956</v>
       </c>
       <c r="D56" t="n">
-        <v>196384.869944923</v>
+        <v>193404.582680922</v>
       </c>
       <c r="E56" t="n">
-        <v>753792.352577307</v>
+        <v>745466.662273713</v>
       </c>
       <c r="F56" t="n">
         <v>772847.311527028</v>
       </c>
       <c r="G56" t="n">
-        <v>19054.9589497207</v>
+        <v>27380.6492533146</v>
       </c>
       <c r="H56" t="n">
-        <v>773.938420097308</v>
+        <v>3085.78129175422</v>
       </c>
       <c r="I56" t="n">
-        <v>197158.80836502</v>
+        <v>196490.363972676</v>
       </c>
       <c r="J56" t="n">
-        <v>772833.192127055</v>
+        <v>772830.885796693</v>
       </c>
       <c r="K56" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57">
@@ -5557,31 +5861,31 @@
         <v>22.0449510634726</v>
       </c>
       <c r="C57" t="n">
-        <v>247550.26633692</v>
+        <v>243972.349468956</v>
       </c>
       <c r="D57" t="n">
-        <v>187465.170515486</v>
+        <v>185495.066351769</v>
       </c>
       <c r="E57" t="n">
-        <v>753792.352577307</v>
+        <v>745466.662273713</v>
       </c>
       <c r="F57" t="n">
         <v>772847.311527028</v>
       </c>
       <c r="G57" t="n">
-        <v>19054.9589497207</v>
+        <v>27380.6492533146</v>
       </c>
       <c r="H57" t="n">
-        <v>8795.17177575582</v>
+        <v>11249.8974116234</v>
       </c>
       <c r="I57" t="n">
-        <v>196260.342291241</v>
+        <v>196744.963763393</v>
       </c>
       <c r="J57" t="n">
-        <v>772833.192127055</v>
+        <v>772830.885796693</v>
       </c>
       <c r="K57" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58">
@@ -5592,31 +5896,31 @@
         <v>21.4883178975589</v>
       </c>
       <c r="C58" t="n">
-        <v>236559.673861787</v>
+        <v>231475.678315643</v>
       </c>
       <c r="D58" t="n">
-        <v>181386.617022908</v>
+        <v>179632.156202053</v>
       </c>
       <c r="E58" t="n">
-        <v>739512.926236361</v>
+        <v>730913.339072414</v>
       </c>
       <c r="F58" t="n">
         <v>834490.621582298</v>
       </c>
       <c r="G58" t="n">
-        <v>94977.6953459375</v>
+        <v>103577.282509885</v>
       </c>
       <c r="H58" t="n">
-        <v>24813.2932765833</v>
+        <v>27251.3461804178</v>
       </c>
       <c r="I58" t="n">
-        <v>206199.910299492</v>
+        <v>206883.502382471</v>
       </c>
       <c r="J58" t="n">
-        <v>834477.06342079</v>
+        <v>834475.451085125</v>
       </c>
       <c r="K58" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59">
@@ -5627,31 +5931,31 @@
         <v>21.6920880988078</v>
       </c>
       <c r="C59" t="n">
-        <v>236559.673861787</v>
+        <v>231475.678315643</v>
       </c>
       <c r="D59" t="n">
-        <v>182728.063883191</v>
+        <v>180821.680123798</v>
       </c>
       <c r="E59" t="n">
-        <v>739512.926236361</v>
+        <v>730913.339072414</v>
       </c>
       <c r="F59" t="n">
         <v>834490.621582298</v>
       </c>
       <c r="G59" t="n">
-        <v>94977.6953459375</v>
+        <v>103577.282509885</v>
       </c>
       <c r="H59" t="n">
-        <v>30791.6382847239</v>
+        <v>33107.5984170397</v>
       </c>
       <c r="I59" t="n">
-        <v>213519.702167915</v>
+        <v>213929.278540838</v>
       </c>
       <c r="J59" t="n">
-        <v>834477.06342079</v>
+        <v>834475.451085125</v>
       </c>
       <c r="K59" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60">
@@ -5662,31 +5966,31 @@
         <v>22.4816378411183</v>
       </c>
       <c r="C60" t="n">
-        <v>236559.673861787</v>
+        <v>231475.678315643</v>
       </c>
       <c r="D60" t="n">
-        <v>187925.776877378</v>
+        <v>185430.736306352</v>
       </c>
       <c r="E60" t="n">
-        <v>739512.926236361</v>
+        <v>730913.339072414</v>
       </c>
       <c r="F60" t="n">
         <v>834490.621582298</v>
       </c>
       <c r="G60" t="n">
-        <v>94977.6953459375</v>
+        <v>103577.282509885</v>
       </c>
       <c r="H60" t="n">
-        <v>26730.2068001775</v>
+        <v>28818.6541214889</v>
       </c>
       <c r="I60" t="n">
-        <v>214655.983677555</v>
+        <v>214249.390427841</v>
       </c>
       <c r="J60" t="n">
-        <v>834477.06342079</v>
+        <v>834475.451085125</v>
       </c>
       <c r="K60" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61">
@@ -5697,31 +6001,31 @@
         <v>22.4127787967373</v>
       </c>
       <c r="C61" t="n">
-        <v>236559.673861787</v>
+        <v>231475.678315643</v>
       </c>
       <c r="D61" t="n">
-        <v>187472.468452884</v>
+        <v>185028.76644021</v>
       </c>
       <c r="E61" t="n">
-        <v>739512.926236361</v>
+        <v>730913.339072414</v>
       </c>
       <c r="F61" t="n">
         <v>834490.621582298</v>
       </c>
       <c r="G61" t="n">
-        <v>94977.6953459375</v>
+        <v>103577.282509885</v>
       </c>
       <c r="H61" t="n">
-        <v>12628.9988229443</v>
+        <v>14384.5132937654</v>
       </c>
       <c r="I61" t="n">
-        <v>200101.467275828</v>
+        <v>199413.279733976</v>
       </c>
       <c r="J61" t="n">
-        <v>834477.06342079</v>
+        <v>834475.451085125</v>
       </c>
       <c r="K61" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62">
@@ -5732,31 +6036,31 @@
         <v>19.0665150620148</v>
       </c>
       <c r="C62" t="n">
-        <v>302825.762667228</v>
+        <v>297218.223361934</v>
       </c>
       <c r="D62" t="n">
-        <v>179999.378894695</v>
+        <v>179243.928281962</v>
       </c>
       <c r="E62" t="n">
-        <v>737831.39215108</v>
+        <v>732789.848915338</v>
       </c>
       <c r="F62" t="n">
         <v>668605.487908423</v>
       </c>
       <c r="G62" t="n">
-        <v>-69225.9042426575</v>
+        <v>-64184.3610069156</v>
       </c>
       <c r="H62" t="n">
-        <v>-11511.9856469759</v>
+        <v>-10194.8240661307</v>
       </c>
       <c r="I62" t="n">
-        <v>168487.393247719</v>
+        <v>169049.104215831</v>
       </c>
       <c r="J62" t="n">
-        <v>668588.545845821</v>
+        <v>668583.713874862</v>
       </c>
       <c r="K62" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63">
@@ -5767,31 +6071,31 @@
         <v>20.0020993335916</v>
       </c>
       <c r="C63" t="n">
-        <v>302825.762667228</v>
+        <v>297218.223361934</v>
       </c>
       <c r="D63" t="n">
-        <v>186158.456993182</v>
+        <v>184705.472045616</v>
       </c>
       <c r="E63" t="n">
-        <v>737831.39215108</v>
+        <v>732789.848915338</v>
       </c>
       <c r="F63" t="n">
         <v>668605.487908423</v>
       </c>
       <c r="G63" t="n">
-        <v>-69225.9042426575</v>
+        <v>-64184.3610069156</v>
       </c>
       <c r="H63" t="n">
-        <v>-23487.8698066795</v>
+        <v>-22369.2428876845</v>
       </c>
       <c r="I63" t="n">
-        <v>162670.587186503</v>
+        <v>162336.229157932</v>
       </c>
       <c r="J63" t="n">
-        <v>668588.545845821</v>
+        <v>668583.713874862</v>
       </c>
       <c r="K63" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64">
@@ -5802,31 +6106,31 @@
         <v>19.868159522839</v>
       </c>
       <c r="C64" t="n">
-        <v>302825.762667228</v>
+        <v>297218.223361934</v>
       </c>
       <c r="D64" t="n">
-        <v>185276.713060558</v>
+        <v>183923.588296237</v>
       </c>
       <c r="E64" t="n">
-        <v>737831.39215108</v>
+        <v>732789.848915338</v>
       </c>
       <c r="F64" t="n">
         <v>668605.487908423</v>
       </c>
       <c r="G64" t="n">
-        <v>-69225.9042426575</v>
+        <v>-64184.3610069156</v>
       </c>
       <c r="H64" t="n">
-        <v>-23298.6536561666</v>
+        <v>-22138.7431708959</v>
       </c>
       <c r="I64" t="n">
-        <v>161978.059404391</v>
+        <v>161784.845125341</v>
       </c>
       <c r="J64" t="n">
-        <v>668588.545845821</v>
+        <v>668583.713874862</v>
       </c>
       <c r="K64" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
@@ -5837,31 +6141,31 @@
         <v>20.0383109848434</v>
       </c>
       <c r="C65" t="n">
-        <v>302825.762667228</v>
+        <v>297218.223361934</v>
       </c>
       <c r="D65" t="n">
-        <v>186396.843202646</v>
+        <v>184916.860291523</v>
       </c>
       <c r="E65" t="n">
-        <v>737831.39215108</v>
+        <v>732789.848915338</v>
       </c>
       <c r="F65" t="n">
         <v>668605.487908423</v>
       </c>
       <c r="G65" t="n">
-        <v>-69225.9042426575</v>
+        <v>-64184.3610069156</v>
       </c>
       <c r="H65" t="n">
-        <v>-10944.3371954372</v>
+        <v>-9503.32491576494</v>
       </c>
       <c r="I65" t="n">
-        <v>175452.506007209</v>
+        <v>175413.535375758</v>
       </c>
       <c r="J65" t="n">
-        <v>668588.545845821</v>
+        <v>668583.713874862</v>
       </c>
       <c r="K65" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66">
@@ -5872,31 +6176,31 @@
         <v>20.3670059421224</v>
       </c>
       <c r="C66" t="n">
-        <v>196845.43614249</v>
+        <v>184453.495155659</v>
       </c>
       <c r="D66" t="n">
-        <v>165281.353294602</v>
+        <v>163252.313164238</v>
       </c>
       <c r="E66" t="n">
-        <v>662312.053716801</v>
+        <v>654061.502543791</v>
       </c>
       <c r="F66" t="n">
         <v>768776.339801933</v>
       </c>
       <c r="G66" t="n">
-        <v>106464.286085132</v>
+        <v>114714.837258142</v>
       </c>
       <c r="H66" t="n">
-        <v>13575.0795755088</v>
+        <v>15537.0118777083</v>
       </c>
       <c r="I66" t="n">
-        <v>178856.43287011</v>
+        <v>178789.325041946</v>
       </c>
       <c r="J66" t="n">
-        <v>768764.809661918</v>
+        <v>768765.892466865</v>
       </c>
       <c r="K66" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67">
@@ -5907,31 +6211,31 @@
         <v>20.3404449770063</v>
       </c>
       <c r="C67" t="n">
-        <v>196845.43614249</v>
+        <v>184453.495155659</v>
       </c>
       <c r="D67" t="n">
-        <v>165106.498860329</v>
+        <v>163097.261526675</v>
       </c>
       <c r="E67" t="n">
-        <v>662312.053716801</v>
+        <v>654061.502543791</v>
       </c>
       <c r="F67" t="n">
         <v>768776.339801933</v>
       </c>
       <c r="G67" t="n">
-        <v>106464.286085132</v>
+        <v>114714.837258142</v>
       </c>
       <c r="H67" t="n">
-        <v>28598.0900481953</v>
+        <v>30808.7808363218</v>
       </c>
       <c r="I67" t="n">
-        <v>193704.588908524</v>
+        <v>193906.042362996</v>
       </c>
       <c r="J67" t="n">
-        <v>768764.809661918</v>
+        <v>768765.892466865</v>
       </c>
       <c r="K67" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68">
@@ -5942,31 +6246,31 @@
         <v>19.238953862392</v>
       </c>
       <c r="C68" t="n">
-        <v>196845.43614249</v>
+        <v>184453.495155659</v>
       </c>
       <c r="D68" t="n">
-        <v>157855.233521862</v>
+        <v>156667.224051158</v>
       </c>
       <c r="E68" t="n">
-        <v>662312.053716801</v>
+        <v>654061.502543791</v>
       </c>
       <c r="F68" t="n">
         <v>768776.339801933</v>
       </c>
       <c r="G68" t="n">
-        <v>106464.286085132</v>
+        <v>114714.837258142</v>
       </c>
       <c r="H68" t="n">
-        <v>34124.6942226225</v>
+        <v>36311.9819600754</v>
       </c>
       <c r="I68" t="n">
-        <v>191979.927744484</v>
+        <v>192979.206011234</v>
       </c>
       <c r="J68" t="n">
-        <v>768764.809661918</v>
+        <v>768765.892466865</v>
       </c>
       <c r="K68" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69">
@@ -5977,31 +6281,31 @@
         <v>21.7018735974778</v>
       </c>
       <c r="C69" t="n">
-        <v>196845.43614249</v>
+        <v>184453.495155659</v>
       </c>
       <c r="D69" t="n">
-        <v>174068.968040009</v>
+        <v>171044.70380172</v>
       </c>
       <c r="E69" t="n">
-        <v>662312.053716801</v>
+        <v>654061.502543791</v>
       </c>
       <c r="F69" t="n">
         <v>768776.339801933</v>
       </c>
       <c r="G69" t="n">
-        <v>106464.286085132</v>
+        <v>114714.837258142</v>
       </c>
       <c r="H69" t="n">
-        <v>30154.8920987903</v>
+        <v>32046.6152489692</v>
       </c>
       <c r="I69" t="n">
-        <v>204223.860138799</v>
+        <v>203091.319050689</v>
       </c>
       <c r="J69" t="n">
-        <v>768764.809661918</v>
+        <v>768765.892466865</v>
       </c>
       <c r="K69" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70">
@@ -6012,31 +6316,31 @@
         <v>18.5195425273225</v>
       </c>
       <c r="C70" t="n">
-        <v>279418.292976169</v>
+        <v>269019.378475149</v>
       </c>
       <c r="D70" t="n">
-        <v>171256.967150024</v>
+        <v>170153.500078362</v>
       </c>
       <c r="E70" t="n">
-        <v>712359.512632992</v>
+        <v>704850.252497834</v>
       </c>
       <c r="F70" t="n">
         <v>743480.134476287</v>
       </c>
       <c r="G70" t="n">
-        <v>31120.6218432956</v>
+        <v>38629.8819784536</v>
       </c>
       <c r="H70" t="n">
-        <v>16688.6836766987</v>
+        <v>18012.6807030031</v>
       </c>
       <c r="I70" t="n">
-        <v>187945.650826723</v>
+        <v>188166.180781365</v>
       </c>
       <c r="J70" t="n">
-        <v>743464.387724344</v>
+        <v>743461.192887046</v>
       </c>
       <c r="K70" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71">
@@ -6047,31 +6351,31 @@
         <v>20.0231597893409</v>
       </c>
       <c r="C71" t="n">
-        <v>279418.292976169</v>
+        <v>269019.378475149</v>
       </c>
       <c r="D71" t="n">
-        <v>181155.483433755</v>
+        <v>178930.97927482</v>
       </c>
       <c r="E71" t="n">
-        <v>712359.512632992</v>
+        <v>704850.252497834</v>
       </c>
       <c r="F71" t="n">
         <v>743480.134476287</v>
       </c>
       <c r="G71" t="n">
-        <v>31120.6218432956</v>
+        <v>38629.8819784536</v>
       </c>
       <c r="H71" t="n">
-        <v>7737.21434631781</v>
+        <v>9055.12864233669</v>
       </c>
       <c r="I71" t="n">
-        <v>188892.697780073</v>
+        <v>187986.107917157</v>
       </c>
       <c r="J71" t="n">
-        <v>743464.387724344</v>
+        <v>743461.192887046</v>
       </c>
       <c r="K71" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72">
@@ -6082,31 +6386,31 @@
         <v>19.9733464256157</v>
       </c>
       <c r="C72" t="n">
-        <v>279418.292976169</v>
+        <v>269019.378475149</v>
       </c>
       <c r="D72" t="n">
-        <v>180827.555307072</v>
+        <v>178640.190006269</v>
       </c>
       <c r="E72" t="n">
-        <v>712359.512632992</v>
+        <v>704850.252497834</v>
       </c>
       <c r="F72" t="n">
         <v>743480.134476287</v>
       </c>
       <c r="G72" t="n">
-        <v>31120.6218432956</v>
+        <v>38629.8819784536</v>
       </c>
       <c r="H72" t="n">
-        <v>3300.4841076476</v>
+        <v>5173.95906696994</v>
       </c>
       <c r="I72" t="n">
-        <v>184128.03941472</v>
+        <v>183814.149073239</v>
       </c>
       <c r="J72" t="n">
-        <v>743464.387724344</v>
+        <v>743461.192887046</v>
       </c>
       <c r="K72" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73">
@@ -6117,31 +6421,31 @@
         <v>19.7138882166296</v>
       </c>
       <c r="C73" t="n">
-        <v>279418.292976169</v>
+        <v>269019.378475149</v>
       </c>
       <c r="D73" t="n">
-        <v>179119.506742141</v>
+        <v>177125.583138382</v>
       </c>
       <c r="E73" t="n">
-        <v>712359.512632992</v>
+        <v>704850.252497834</v>
       </c>
       <c r="F73" t="n">
         <v>743480.134476287</v>
       </c>
       <c r="G73" t="n">
-        <v>31120.6218432956</v>
+        <v>38629.8819784536</v>
       </c>
       <c r="H73" t="n">
-        <v>3378.49296068807</v>
+        <v>6369.17197690283</v>
       </c>
       <c r="I73" t="n">
-        <v>182497.999702829</v>
+        <v>183494.755115285</v>
       </c>
       <c r="J73" t="n">
-        <v>743464.387724344</v>
+        <v>743461.192887046</v>
       </c>
       <c r="K73" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74">
@@ -6152,31 +6456,31 @@
         <v>21.768382789165</v>
       </c>
       <c r="C74" t="n">
-        <v>276625.49264914</v>
+        <v>263677.999061089</v>
       </c>
       <c r="D74" t="n">
-        <v>192031.064565869</v>
+        <v>188001.767673003</v>
       </c>
       <c r="E74" t="n">
-        <v>853220.95512181</v>
+        <v>827466.307708074</v>
       </c>
       <c r="F74" t="n">
         <v>895153</v>
       </c>
       <c r="G74" t="n">
-        <v>41932.0448781902</v>
+        <v>67686.692291926</v>
       </c>
       <c r="H74" t="n">
-        <v>7971.24090543922</v>
+        <v>12640.7673721354</v>
       </c>
       <c r="I74" t="n">
-        <v>200002.305471308</v>
+        <v>200642.535045138</v>
       </c>
       <c r="J74" t="n">
-        <v>895137.395863386</v>
+        <v>895134.594927763</v>
       </c>
       <c r="K74" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75">
@@ -6187,31 +6491,31 @@
         <v>24.8286230429217</v>
       </c>
       <c r="C75" t="n">
-        <v>276625.49264914</v>
+        <v>263677.999061089</v>
       </c>
       <c r="D75" t="n">
-        <v>212177.04103815</v>
+        <v>205866.15101179</v>
       </c>
       <c r="E75" t="n">
-        <v>853220.95512181</v>
+        <v>827466.307708074</v>
       </c>
       <c r="F75" t="n">
         <v>895153</v>
       </c>
       <c r="G75" t="n">
-        <v>41932.0448781902</v>
+        <v>67686.692291926</v>
       </c>
       <c r="H75" t="n">
-        <v>10811.4877953216</v>
+        <v>16859.9273033432</v>
       </c>
       <c r="I75" t="n">
-        <v>222988.528833472</v>
+        <v>222726.078315134</v>
       </c>
       <c r="J75" t="n">
-        <v>895137.395863386</v>
+        <v>895134.594927763</v>
       </c>
       <c r="K75" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76">
@@ -6222,31 +6526,31 @@
         <v>26.6708827706342</v>
       </c>
       <c r="C76" t="n">
-        <v>276625.49264914</v>
+        <v>263677.999061089</v>
       </c>
       <c r="D76" t="n">
-        <v>224304.886583861</v>
+        <v>216620.481148147</v>
       </c>
       <c r="E76" t="n">
-        <v>853220.95512181</v>
+        <v>827466.307708074</v>
       </c>
       <c r="F76" t="n">
         <v>895153</v>
       </c>
       <c r="G76" t="n">
-        <v>41932.0448781902</v>
+        <v>67686.692291926</v>
       </c>
       <c r="H76" t="n">
-        <v>11899.2336303352</v>
+        <v>19026.6517705263</v>
       </c>
       <c r="I76" t="n">
-        <v>236204.120214196</v>
+        <v>235647.132918674</v>
       </c>
       <c r="J76" t="n">
-        <v>895137.395863386</v>
+        <v>895134.594927763</v>
       </c>
       <c r="K76" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77">
@@ -6257,31 +6561,31 @@
         <v>26.7321113972791</v>
       </c>
       <c r="C77" t="n">
-        <v>276625.49264914</v>
+        <v>263677.999061089</v>
       </c>
       <c r="D77" t="n">
-        <v>224707.96293393</v>
+        <v>216977.907875133</v>
       </c>
       <c r="E77" t="n">
-        <v>853220.95512181</v>
+        <v>827466.307708074</v>
       </c>
       <c r="F77" t="n">
         <v>895153</v>
       </c>
       <c r="G77" t="n">
-        <v>41932.0448781902</v>
+        <v>67686.692291926</v>
       </c>
       <c r="H77" t="n">
-        <v>11234.4784104801</v>
+        <v>19140.9407736846</v>
       </c>
       <c r="I77" t="n">
-        <v>235942.44134441</v>
+        <v>236118.848648818</v>
       </c>
       <c r="J77" t="n">
-        <v>895137.395863386</v>
+        <v>895134.594927763</v>
       </c>
       <c r="K77" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78">
@@ -6292,31 +6596,31 @@
         <v>29.9589485177964</v>
       </c>
       <c r="C78" t="n">
-        <v>284983.081770117</v>
+        <v>288266.479298967</v>
       </c>
       <c r="D78" t="n">
-        <v>247786.473128078</v>
+        <v>240957.185272106</v>
       </c>
       <c r="E78" t="n">
-        <v>1027546.19996272</v>
+        <v>996106.602965131</v>
       </c>
       <c r="F78" t="n">
         <v>1046000</v>
       </c>
       <c r="G78" t="n">
-        <v>18453.8000372844</v>
+        <v>49893.3970348693</v>
       </c>
       <c r="H78" t="n">
-        <v>8817.22213575621</v>
+        <v>17202.7943128183</v>
       </c>
       <c r="I78" t="n">
-        <v>256603.695263835</v>
+        <v>258159.979584924</v>
       </c>
       <c r="J78" t="n">
-        <v>1045983.96908016</v>
+        <v>1045979.12512797</v>
       </c>
       <c r="K78" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79">
@@ -6327,31 +6631,31 @@
         <v>33.6558078578433</v>
       </c>
       <c r="C79" t="n">
-        <v>284983.081770117</v>
+        <v>288266.479298967</v>
       </c>
       <c r="D79" t="n">
-        <v>272123.399352905</v>
+        <v>262537.880552192</v>
       </c>
       <c r="E79" t="n">
-        <v>1027546.19996272</v>
+        <v>996106.602965131</v>
       </c>
       <c r="F79" t="n">
         <v>1046000</v>
       </c>
       <c r="G79" t="n">
-        <v>18453.8000372844</v>
+        <v>49893.3970348693</v>
       </c>
       <c r="H79" t="n">
-        <v>6167.2076833089</v>
+        <v>14533.6702196287</v>
       </c>
       <c r="I79" t="n">
-        <v>278290.607036213</v>
+        <v>277071.55077182</v>
       </c>
       <c r="J79" t="n">
-        <v>1045983.96908016</v>
+        <v>1045979.12512797</v>
       </c>
       <c r="K79" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80">
@@ -6362,31 +6666,31 @@
         <v>31.8201251548662</v>
       </c>
       <c r="C80" t="n">
-        <v>284983.081770117</v>
+        <v>288266.479298967</v>
       </c>
       <c r="D80" t="n">
-        <v>260038.851252685</v>
+        <v>251821.944293883</v>
       </c>
       <c r="E80" t="n">
-        <v>1027546.19996272</v>
+        <v>996106.602965131</v>
       </c>
       <c r="F80" t="n">
         <v>1046000</v>
       </c>
       <c r="G80" t="n">
-        <v>18453.8000372844</v>
+        <v>49893.3970348693</v>
       </c>
       <c r="H80" t="n">
-        <v>3284.43505313817</v>
+        <v>11133.5684941158</v>
       </c>
       <c r="I80" t="n">
-        <v>263323.286305823</v>
+        <v>262955.512787999</v>
       </c>
       <c r="J80" t="n">
-        <v>1045983.96908016</v>
+        <v>1045979.12512797</v>
       </c>
       <c r="K80" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81">
@@ -6397,31 +6701,31 @@
         <v>29.9302392656515</v>
       </c>
       <c r="C81" t="n">
-        <v>284983.081770117</v>
+        <v>288266.479298967</v>
       </c>
       <c r="D81" t="n">
-        <v>247597.476229048</v>
+        <v>240789.59284695</v>
       </c>
       <c r="E81" t="n">
-        <v>1027546.19996272</v>
+        <v>996106.602965131</v>
       </c>
       <c r="F81" t="n">
         <v>1046000</v>
       </c>
       <c r="G81" t="n">
-        <v>18453.8000372844</v>
+        <v>49893.3970348693</v>
       </c>
       <c r="H81" t="n">
-        <v>168.904245244005</v>
+        <v>7002.48913627968</v>
       </c>
       <c r="I81" t="n">
-        <v>247766.380474292</v>
+        <v>247792.08198323</v>
       </c>
       <c r="J81" t="n">
-        <v>1045983.96908016</v>
+        <v>1045979.12512797</v>
       </c>
       <c r="K81" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82">
@@ -6432,31 +6736,31 @@
         <v>29.0870550320519</v>
       </c>
       <c r="C82" t="n">
-        <v>268848.052777892</v>
+        <v>291042.673165049</v>
       </c>
       <c r="D82" t="n">
-        <v>238502.506096811</v>
+        <v>236448.047406634</v>
       </c>
       <c r="E82" t="n">
-        <v>918560.641975232</v>
+        <v>914357.557634249</v>
       </c>
       <c r="F82" t="n">
         <v>799178.404310666</v>
       </c>
       <c r="G82" t="n">
-        <v>-119382.237664566</v>
+        <v>-115179.153323584</v>
       </c>
       <c r="H82" t="n">
-        <v>-3179.38474037358</v>
+        <v>2140.4321461203</v>
       </c>
       <c r="I82" t="n">
-        <v>235323.121356437</v>
+        <v>238588.479552755</v>
       </c>
       <c r="J82" t="n">
-        <v>799163.19733175</v>
+        <v>799157.250582729</v>
       </c>
       <c r="K82" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83">
@@ -6467,31 +6771,31 @@
         <v>28.3541232611199</v>
       </c>
       <c r="C83" t="n">
-        <v>268848.052777892</v>
+        <v>291042.673165049</v>
       </c>
       <c r="D83" t="n">
-        <v>233677.516884001</v>
+        <v>232169.502903133</v>
       </c>
       <c r="E83" t="n">
-        <v>918560.641975232</v>
+        <v>914357.557634249</v>
       </c>
       <c r="F83" t="n">
         <v>799178.404310666</v>
       </c>
       <c r="G83" t="n">
-        <v>-119382.237664566</v>
+        <v>-115179.153323584</v>
       </c>
       <c r="H83" t="n">
-        <v>-15186.6909028194</v>
+        <v>-12180.5942135436</v>
       </c>
       <c r="I83" t="n">
-        <v>218490.825981182</v>
+        <v>219988.908689589</v>
       </c>
       <c r="J83" t="n">
-        <v>799163.19733175</v>
+        <v>799157.250582729</v>
       </c>
       <c r="K83" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84">
@@ -6502,31 +6806,31 @@
         <v>25.9496844001354</v>
       </c>
       <c r="C84" t="n">
-        <v>268848.052777892</v>
+        <v>291042.673165049</v>
       </c>
       <c r="D84" t="n">
-        <v>217848.769888411</v>
+        <v>218133.4096668</v>
       </c>
       <c r="E84" t="n">
-        <v>918560.641975232</v>
+        <v>914357.557634249</v>
       </c>
       <c r="F84" t="n">
         <v>799178.404310666</v>
       </c>
       <c r="G84" t="n">
-        <v>-119382.237664566</v>
+        <v>-115179.153323584</v>
       </c>
       <c r="H84" t="n">
-        <v>-35853.0142420934</v>
+        <v>-35960.5899427121</v>
       </c>
       <c r="I84" t="n">
-        <v>181995.755646318</v>
+        <v>182172.819724088</v>
       </c>
       <c r="J84" t="n">
-        <v>799163.19733175</v>
+        <v>799157.250582729</v>
       </c>
       <c r="K84" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85">
@@ -6537,31 +6841,31 @@
         <v>27.5724793587587</v>
       </c>
       <c r="C85" t="n">
-        <v>268848.052777892</v>
+        <v>291042.673165049</v>
       </c>
       <c r="D85" t="n">
-        <v>228531.849106008</v>
+        <v>227606.597657682</v>
       </c>
       <c r="E85" t="n">
-        <v>918560.641975232</v>
+        <v>914357.557634249</v>
       </c>
       <c r="F85" t="n">
         <v>799178.404310666</v>
       </c>
       <c r="G85" t="n">
-        <v>-119382.237664566</v>
+        <v>-115179.153323584</v>
       </c>
       <c r="H85" t="n">
-        <v>-65178.3547581957</v>
+        <v>-69199.5550413851</v>
       </c>
       <c r="I85" t="n">
-        <v>163353.494347813</v>
+        <v>158407.042616297</v>
       </c>
       <c r="J85" t="n">
-        <v>799163.19733175</v>
+        <v>799157.250582729</v>
       </c>
       <c r="K85" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86">
@@ -6572,31 +6876,31 @@
         <v>26.4440266962017</v>
       </c>
       <c r="C86" t="n">
-        <v>116835.31903373</v>
+        <v>128292.5473314</v>
       </c>
       <c r="D86" t="n">
-        <v>187712.412840734</v>
+        <v>186982.022322417</v>
       </c>
       <c r="E86" t="n">
-        <v>750120.150613006</v>
+        <v>781570.964584956</v>
       </c>
       <c r="F86" t="n">
         <v>301304.960956594</v>
       </c>
       <c r="G86" t="n">
-        <v>-448815.189656412</v>
+        <v>-480266.003628362</v>
       </c>
       <c r="H86" t="n">
-        <v>-103162.712451126</v>
+        <v>-111897.489509563</v>
       </c>
       <c r="I86" t="n">
-        <v>84549.7003896075</v>
+        <v>75084.5328128541</v>
       </c>
       <c r="J86" t="n">
-        <v>301297.516561304</v>
+        <v>301300.154730527</v>
       </c>
       <c r="K86" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87">
@@ -6607,31 +6911,31 @@
         <v>26.96007454148</v>
       </c>
       <c r="C87" t="n">
-        <v>116835.31903373</v>
+        <v>128292.5473314</v>
       </c>
       <c r="D87" t="n">
-        <v>191109.625767655</v>
+        <v>189994.490548691</v>
       </c>
       <c r="E87" t="n">
-        <v>750120.150613006</v>
+        <v>781570.964584956</v>
       </c>
       <c r="F87" t="n">
         <v>301304.960956594</v>
       </c>
       <c r="G87" t="n">
-        <v>-448815.189656412</v>
+        <v>-480266.003628362</v>
       </c>
       <c r="H87" t="n">
-        <v>-121973.633953018</v>
+        <v>-132244.748478452</v>
       </c>
       <c r="I87" t="n">
-        <v>69135.9918146371</v>
+        <v>57749.7420702392</v>
       </c>
       <c r="J87" t="n">
-        <v>301297.516561304</v>
+        <v>301300.154730527</v>
       </c>
       <c r="K87" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88">
@@ -6639,34 +6943,34 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>23.0527291378194</v>
+        <v>28.9267016854286</v>
       </c>
       <c r="C88" t="n">
-        <v>116835.31903373</v>
+        <v>128292.5473314</v>
       </c>
       <c r="D88" t="n">
-        <v>165387.041250119</v>
+        <v>201474.824859317</v>
       </c>
       <c r="E88" t="n">
-        <v>750120.150613006</v>
+        <v>781570.964584956</v>
       </c>
       <c r="F88" t="n">
         <v>301304.960956594</v>
       </c>
       <c r="G88" t="n">
-        <v>-448815.189656412</v>
+        <v>-480266.003628362</v>
       </c>
       <c r="H88" t="n">
-        <v>-121611.119263872</v>
+        <v>-130241.331948052</v>
       </c>
       <c r="I88" t="n">
-        <v>43775.921986247</v>
+        <v>71233.4929112655</v>
       </c>
       <c r="J88" t="n">
-        <v>301297.516561304</v>
+        <v>301300.154730527</v>
       </c>
       <c r="K88" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89">
@@ -6677,31 +6981,31 @@
         <v>29.2084628399983</v>
       </c>
       <c r="C89" t="n">
-        <v>116835.31903373</v>
+        <v>128292.5473314</v>
       </c>
       <c r="D89" t="n">
-        <v>205911.070754499</v>
+        <v>203119.626854531</v>
       </c>
       <c r="E89" t="n">
-        <v>750120.150613006</v>
+        <v>781570.964584956</v>
       </c>
       <c r="F89" t="n">
         <v>301304.960956594</v>
       </c>
       <c r="G89" t="n">
-        <v>-448815.189656412</v>
+        <v>-480266.003628362</v>
       </c>
       <c r="H89" t="n">
-        <v>-102075.168383687</v>
+        <v>-105887.239918363</v>
       </c>
       <c r="I89" t="n">
-        <v>103835.902370812</v>
+        <v>97232.3869361681</v>
       </c>
       <c r="J89" t="n">
-        <v>301297.516561304</v>
+        <v>301300.154730527</v>
       </c>
       <c r="K89" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90">
@@ -6712,31 +7016,31 @@
         <v>28.5732450432684</v>
       </c>
       <c r="C90" t="n">
-        <v>-346160.350564035</v>
+        <v>-372942.894132243</v>
       </c>
       <c r="D90" t="n">
-        <v>100029.050208302</v>
+        <v>94584.3883938225</v>
       </c>
       <c r="E90" t="n">
-        <v>470741.269794801</v>
+        <v>440964.118586627</v>
       </c>
       <c r="F90" t="n">
         <v>354121.473116856</v>
       </c>
       <c r="G90" t="n">
-        <v>-116619.796677945</v>
+        <v>-86842.6454697709</v>
       </c>
       <c r="H90" t="n">
-        <v>-63365.781312463</v>
+        <v>-59182.4723893861</v>
       </c>
       <c r="I90" t="n">
-        <v>36663.2688958393</v>
+        <v>35401.9160044364</v>
       </c>
       <c r="J90" t="n">
-        <v>354137.671758006</v>
+        <v>354167.01368637</v>
       </c>
       <c r="K90" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91">
@@ -6747,31 +7051,31 @@
         <v>32.7014300675765</v>
       </c>
       <c r="C91" t="n">
-        <v>-346160.350564035</v>
+        <v>-372942.894132243</v>
       </c>
       <c r="D91" t="n">
-        <v>127205.451888152</v>
+        <v>118682.979894001</v>
       </c>
       <c r="E91" t="n">
-        <v>470741.269794801</v>
+        <v>440964.118586627</v>
       </c>
       <c r="F91" t="n">
         <v>354121.473116856</v>
       </c>
       <c r="G91" t="n">
-        <v>-116619.796677945</v>
+        <v>-86842.6454697709</v>
       </c>
       <c r="H91" t="n">
-        <v>-34196.0737626679</v>
+        <v>-25507.2869120666</v>
       </c>
       <c r="I91" t="n">
-        <v>93009.3781254842</v>
+        <v>93175.6929819341</v>
       </c>
       <c r="J91" t="n">
-        <v>354137.671758006</v>
+        <v>354167.01368637</v>
       </c>
       <c r="K91" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92">
@@ -6782,31 +7086,31 @@
         <v>32.8541732434097</v>
       </c>
       <c r="C92" t="n">
-        <v>-346160.350564035</v>
+        <v>-372942.894132243</v>
       </c>
       <c r="D92" t="n">
-        <v>128210.980922305</v>
+        <v>119574.629705521</v>
       </c>
       <c r="E92" t="n">
-        <v>470741.269794801</v>
+        <v>440964.118586627</v>
       </c>
       <c r="F92" t="n">
         <v>354121.473116856</v>
       </c>
       <c r="G92" t="n">
-        <v>-116619.796677945</v>
+        <v>-86842.6454697709</v>
       </c>
       <c r="H92" t="n">
-        <v>-14566.0457343012</v>
+        <v>-4861.68348640458</v>
       </c>
       <c r="I92" t="n">
-        <v>113644.935188004</v>
+        <v>114712.946219116</v>
       </c>
       <c r="J92" t="n">
-        <v>354137.671758006</v>
+        <v>354167.01368637</v>
       </c>
       <c r="K92" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93">
@@ -6817,31 +7121,31 @@
         <v>30.8923126671373</v>
       </c>
       <c r="C93" t="n">
-        <v>-346160.350564035</v>
+        <v>-372942.894132243</v>
       </c>
       <c r="D93" t="n">
-        <v>115295.786776041</v>
+        <v>108122.120593283</v>
       </c>
       <c r="E93" t="n">
-        <v>470741.269794801</v>
+        <v>440964.118586627</v>
       </c>
       <c r="F93" t="n">
         <v>354121.473116856</v>
       </c>
       <c r="G93" t="n">
-        <v>-116619.796677945</v>
+        <v>-86842.6454697709</v>
       </c>
       <c r="H93" t="n">
-        <v>-4475.69722736285</v>
+        <v>2754.33788759982</v>
       </c>
       <c r="I93" t="n">
-        <v>110820.089548679</v>
+        <v>110876.458480883</v>
       </c>
       <c r="J93" t="n">
-        <v>354137.671758006</v>
+        <v>354167.01368637</v>
       </c>
       <c r="K93" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94">
@@ -6852,31 +7156,31 @@
         <v>29.9240077211821</v>
       </c>
       <c r="C94" t="n">
-        <v>-420766.140276778</v>
+        <v>-398827.962585367</v>
       </c>
       <c r="D94" t="n">
-        <v>92533.6110875007</v>
+        <v>97056.0299789152</v>
       </c>
       <c r="E94" t="n">
-        <v>390001.119051784</v>
+        <v>405840.833259286</v>
       </c>
       <c r="F94" t="n">
         <v>376208.339121658</v>
       </c>
       <c r="G94" t="n">
-        <v>-13792.7799301256</v>
+        <v>-29632.4941376282</v>
       </c>
       <c r="H94" t="n">
-        <v>-3925.02824185292</v>
+        <v>-2659.22279005336</v>
       </c>
       <c r="I94" t="n">
-        <v>88608.5828456478</v>
+        <v>94396.8071888619</v>
       </c>
       <c r="J94" t="n">
-        <v>376228.347533657</v>
+        <v>376256.479727287</v>
       </c>
       <c r="K94" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95">
@@ -6887,31 +7191,31 @@
         <v>30.5158747966012</v>
       </c>
       <c r="C95" t="n">
-        <v>-420766.140276778</v>
+        <v>-398827.962585367</v>
       </c>
       <c r="D95" t="n">
-        <v>96429.9522853767</v>
+        <v>100511.098680764</v>
       </c>
       <c r="E95" t="n">
-        <v>390001.119051784</v>
+        <v>405840.833259286</v>
       </c>
       <c r="F95" t="n">
         <v>376208.339121658</v>
       </c>
       <c r="G95" t="n">
-        <v>-13792.7799301256</v>
+        <v>-29632.4941376282</v>
       </c>
       <c r="H95" t="n">
-        <v>-3512.02650272046</v>
+        <v>-6719.39329829325</v>
       </c>
       <c r="I95" t="n">
-        <v>92917.9257826562</v>
+        <v>93791.705382471</v>
       </c>
       <c r="J95" t="n">
-        <v>376228.347533657</v>
+        <v>376256.479727287</v>
       </c>
       <c r="K95" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96">
@@ -6922,31 +7226,31 @@
         <v>30.6095723417151</v>
       </c>
       <c r="C96" t="n">
-        <v>-420766.140276778</v>
+        <v>-398827.962585367</v>
       </c>
       <c r="D96" t="n">
-        <v>97046.7759275915</v>
+        <v>101058.065168694</v>
       </c>
       <c r="E96" t="n">
-        <v>390001.119051784</v>
+        <v>405840.833259286</v>
       </c>
       <c r="F96" t="n">
         <v>376208.339121658</v>
       </c>
       <c r="G96" t="n">
-        <v>-13792.7799301256</v>
+        <v>-29632.4941376282</v>
       </c>
       <c r="H96" t="n">
-        <v>-3236.69200996549</v>
+        <v>-9426.17363711984</v>
       </c>
       <c r="I96" t="n">
-        <v>93810.083917626</v>
+        <v>91631.8915315739</v>
       </c>
       <c r="J96" t="n">
-        <v>376228.347533657</v>
+        <v>376256.479727287</v>
       </c>
       <c r="K96" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97">
@@ -6957,31 +7261,31 @@
         <v>31.664389419102</v>
       </c>
       <c r="C97" t="n">
-        <v>-420766.140276778</v>
+        <v>-398827.962585367</v>
       </c>
       <c r="D97" t="n">
-        <v>103990.779751315</v>
+        <v>107215.639430913</v>
       </c>
       <c r="E97" t="n">
-        <v>390001.119051784</v>
+        <v>405840.833259286</v>
       </c>
       <c r="F97" t="n">
         <v>376208.339121658</v>
       </c>
       <c r="G97" t="n">
-        <v>-13792.7799301256</v>
+        <v>-29632.4941376282</v>
       </c>
       <c r="H97" t="n">
-        <v>-3099.02476358801</v>
+        <v>-10779.5638065331</v>
       </c>
       <c r="I97" t="n">
-        <v>100891.754987727</v>
+        <v>96436.0756243801</v>
       </c>
       <c r="J97" t="n">
-        <v>376228.347533657</v>
+        <v>376256.479727287</v>
       </c>
       <c r="K97" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -7003,13 +7307,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2">
@@ -7017,13 +7321,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>43002.3380982417</v>
+        <v>41516.1214812771</v>
       </c>
       <c r="C2" t="n">
         <v>4.92670337924297</v>
       </c>
       <c r="D2" t="n">
-        <v>49125.1300793501</v>
+        <v>13725.0758407245</v>
       </c>
     </row>
     <row r="3">
@@ -7031,13 +7335,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>41230.5855747097</v>
+        <v>40395.1621850334</v>
       </c>
       <c r="C3" t="n">
         <v>4.77661934695987</v>
       </c>
       <c r="D3" t="n">
-        <v>49125.1300793501</v>
+        <v>13725.0758407245</v>
       </c>
     </row>
     <row r="4">
@@ -7045,13 +7349,13 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>39869.278637444</v>
+        <v>40088.3011266524</v>
       </c>
       <c r="C4" t="n">
         <v>4.80793437066517</v>
       </c>
       <c r="D4" t="n">
-        <v>49125.1300793501</v>
+        <v>13725.0758407245</v>
       </c>
     </row>
     <row r="5">
@@ -7059,13 +7363,13 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>35161.374759125</v>
+        <v>37263.9922765576</v>
       </c>
       <c r="C5" t="n">
         <v>4.4499413023088</v>
       </c>
       <c r="D5" t="n">
-        <v>49125.1300793501</v>
+        <v>13725.0758407245</v>
       </c>
     </row>
     <row r="6">
@@ -7073,13 +7377,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45502.321745105</v>
+        <v>44168.9245933314</v>
       </c>
       <c r="C6" t="n">
         <v>5.38059004057213</v>
       </c>
       <c r="D6" t="n">
-        <v>82583.0763413991</v>
+        <v>25447.1740940197</v>
       </c>
     </row>
     <row r="7">
@@ -7087,13 +7391,13 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>43934.9096139774</v>
+        <v>43968.510491915</v>
       </c>
       <c r="C7" t="n">
         <v>5.443140022796</v>
       </c>
       <c r="D7" t="n">
-        <v>82583.0763413991</v>
+        <v>25447.1740940197</v>
       </c>
     </row>
     <row r="8">
@@ -7101,13 +7405,13 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>44035.1168652852</v>
+        <v>44635.7891881263</v>
       </c>
       <c r="C8" t="n">
         <v>5.58344786880406</v>
       </c>
       <c r="D8" t="n">
-        <v>82583.0763413991</v>
+        <v>25447.1740940197</v>
       </c>
     </row>
     <row r="9">
@@ -7115,13 +7419,13 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>42778.5110314262</v>
+        <v>43488.8543937367</v>
       </c>
       <c r="C9" t="n">
         <v>5.342092314263</v>
       </c>
       <c r="D9" t="n">
-        <v>82583.0763413991</v>
+        <v>25447.1740940197</v>
       </c>
     </row>
     <row r="10">
@@ -7129,13 +7433,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>46372.8166382293</v>
+        <v>46447.5716977665</v>
       </c>
       <c r="C10" t="n">
         <v>5.70746844016047</v>
       </c>
       <c r="D10" t="n">
-        <v>81221.7988661779</v>
+        <v>26164.5718386878</v>
       </c>
     </row>
     <row r="11">
@@ -7143,13 +7447,13 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>47745.7676721153</v>
+        <v>47433.6429826349</v>
       </c>
       <c r="C11" t="n">
         <v>5.83648748040312</v>
       </c>
       <c r="D11" t="n">
-        <v>81221.7988661779</v>
+        <v>26164.5718386878</v>
       </c>
     </row>
     <row r="12">
@@ -7157,13 +7461,13 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>48911.6329930478</v>
+        <v>48648.3997850517</v>
       </c>
       <c r="C12" t="n">
         <v>6.08054477319217</v>
       </c>
       <c r="D12" t="n">
-        <v>81221.7988661779</v>
+        <v>26164.5718386878</v>
       </c>
     </row>
     <row r="13">
@@ -7171,13 +7475,13 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>47307.5572026429</v>
+        <v>47819.2378784803</v>
       </c>
       <c r="C13" t="n">
         <v>6.05033413297322</v>
       </c>
       <c r="D13" t="n">
-        <v>81221.7988661779</v>
+        <v>26164.5718386878</v>
       </c>
     </row>
     <row r="14">
@@ -7185,13 +7489,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>68217.5949489822</v>
+        <v>67687.2107174225</v>
       </c>
       <c r="C14" t="n">
         <v>9.53952007842567</v>
       </c>
       <c r="D14" t="n">
-        <v>82632.3919182773</v>
+        <v>29010.7890771903</v>
       </c>
     </row>
     <row r="15">
@@ -7199,13 +7503,13 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>68238.6670029334</v>
+        <v>68080.8004024282</v>
       </c>
       <c r="C15" t="n">
         <v>9.78559471146319</v>
       </c>
       <c r="D15" t="n">
-        <v>82632.3919182773</v>
+        <v>29010.7890771903</v>
       </c>
     </row>
     <row r="16">
@@ -7213,13 +7517,13 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>57534.8320119387</v>
+        <v>58333.4499399278</v>
       </c>
       <c r="C16" t="n">
         <v>8.28544530288843</v>
       </c>
       <c r="D16" t="n">
-        <v>82632.3919182773</v>
+        <v>29010.7890771903</v>
       </c>
     </row>
     <row r="17">
@@ -7227,13 +7531,13 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>57638.1602054956</v>
+        <v>57538.6570904635</v>
       </c>
       <c r="C17" t="n">
         <v>8.30986431856595</v>
       </c>
       <c r="D17" t="n">
-        <v>82632.3919182773</v>
+        <v>29010.7890771903</v>
       </c>
     </row>
     <row r="18">
@@ -7241,13 +7545,13 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>54164.4186938331</v>
+        <v>54573.2139869008</v>
       </c>
       <c r="C18" t="n">
         <v>8.31857710615766</v>
       </c>
       <c r="D18" t="n">
-        <v>63309.5672237968</v>
+        <v>18817.7877936469</v>
       </c>
     </row>
     <row r="19">
@@ -7255,13 +7559,13 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>56348.4954778758</v>
+        <v>55826.0265201784</v>
       </c>
       <c r="C19" t="n">
         <v>8.41842324782331</v>
       </c>
       <c r="D19" t="n">
-        <v>63309.5672237968</v>
+        <v>18817.7877936469</v>
       </c>
     </row>
     <row r="20">
@@ -7269,13 +7573,13 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>55507.0545715288</v>
+        <v>55229.1398064213</v>
       </c>
       <c r="C20" t="n">
         <v>7.9351131285423</v>
       </c>
       <c r="D20" t="n">
-        <v>63309.5672237968</v>
+        <v>18817.7877936469</v>
       </c>
     </row>
     <row r="21">
@@ -7283,13 +7587,13 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>58173.8572701204</v>
+        <v>58576.3467940367</v>
       </c>
       <c r="C21" t="n">
         <v>7.86114663293979</v>
       </c>
       <c r="D21" t="n">
-        <v>63309.5672237968</v>
+        <v>18817.7877936469</v>
       </c>
     </row>
     <row r="22">
@@ -7297,13 +7601,13 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>80310.5205247323</v>
+        <v>79419.6498696944</v>
       </c>
       <c r="C22" t="n">
         <v>10.7925922531023</v>
       </c>
       <c r="D22" t="n">
-        <v>58171.3141041876</v>
+        <v>11154.2000079085</v>
       </c>
     </row>
     <row r="23">
@@ -7311,13 +7615,13 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>92734.9026434455</v>
+        <v>91797.6114217841</v>
       </c>
       <c r="C23" t="n">
         <v>12.5976412661378</v>
       </c>
       <c r="D23" t="n">
-        <v>58171.3141041876</v>
+        <v>11154.2000079085</v>
       </c>
     </row>
     <row r="24">
@@ -7325,13 +7629,13 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>90663.0356995798</v>
+        <v>90866.1495690523</v>
       </c>
       <c r="C24" t="n">
         <v>12.7210394164864</v>
       </c>
       <c r="D24" t="n">
-        <v>58171.3141041876</v>
+        <v>11154.2000079085</v>
       </c>
     </row>
     <row r="25">
@@ -7339,13 +7643,13 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>81987.7595696558</v>
+        <v>83624.2160565204</v>
       </c>
       <c r="C25" t="n">
         <v>12.3617351065656</v>
       </c>
       <c r="D25" t="n">
-        <v>58171.3141041876</v>
+        <v>11154.2000079085</v>
       </c>
     </row>
     <row r="26">
@@ -7353,13 +7657,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>112350.447471742</v>
+        <v>113267.436190705</v>
       </c>
       <c r="C26" t="n">
         <v>17.8999646133774</v>
       </c>
       <c r="D26" t="n">
-        <v>74739.9225613996</v>
+        <v>39606.8490644923</v>
       </c>
     </row>
     <row r="27">
@@ -7367,13 +7671,13 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>117375.949498372</v>
+        <v>118149.982070656</v>
       </c>
       <c r="C27" t="n">
         <v>19.0629017039228</v>
       </c>
       <c r="D27" t="n">
-        <v>74739.9225613996</v>
+        <v>39606.8490644923</v>
       </c>
     </row>
     <row r="28">
@@ -7381,13 +7685,13 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>134666.78109989</v>
+        <v>134339.046337131</v>
       </c>
       <c r="C28" t="n">
         <v>21.0096536536455</v>
       </c>
       <c r="D28" t="n">
-        <v>74739.9225613996</v>
+        <v>39606.8490644923</v>
       </c>
     </row>
     <row r="29">
@@ -7395,13 +7699,13 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>155089.206380552</v>
+        <v>153735.316475729</v>
       </c>
       <c r="C29" t="n">
         <v>22.3527758631837</v>
       </c>
       <c r="D29" t="n">
-        <v>74739.9225613996</v>
+        <v>39606.8490644923</v>
       </c>
     </row>
     <row r="30">
@@ -7409,13 +7713,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>138784.05589399</v>
+        <v>145444.913195138</v>
       </c>
       <c r="C30" t="n">
         <v>18.2354220614974</v>
       </c>
       <c r="D30" t="n">
-        <v>38839.005855673</v>
+        <v>27453.7283112936</v>
       </c>
     </row>
     <row r="31">
@@ -7423,13 +7727,13 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>139143.380658337</v>
+        <v>143802.703885509</v>
       </c>
       <c r="C31" t="n">
         <v>16.7772301158381</v>
       </c>
       <c r="D31" t="n">
-        <v>38839.005855673</v>
+        <v>27453.7283112936</v>
       </c>
     </row>
     <row r="32">
@@ -7437,13 +7741,13 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>143075.328629453</v>
+        <v>141650.646517247</v>
       </c>
       <c r="C32" t="n">
         <v>17.1873975288238</v>
       </c>
       <c r="D32" t="n">
-        <v>38839.005855673</v>
+        <v>27453.7283112936</v>
       </c>
     </row>
     <row r="33">
@@ -7451,13 +7755,13 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>135530.022857436</v>
+        <v>125643.308497172</v>
       </c>
       <c r="C33" t="n">
         <v>17.1797983675893</v>
       </c>
       <c r="D33" t="n">
-        <v>38839.005855673</v>
+        <v>27453.7283112936</v>
       </c>
     </row>
     <row r="34">
@@ -7465,13 +7769,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>86954.3467794548</v>
+        <v>137457.861052683</v>
       </c>
       <c r="C34" t="n">
-        <v>8.62478489938601</v>
+        <v>20.2774903405351</v>
       </c>
       <c r="D34" t="n">
-        <v>147942.942650346</v>
+        <v>128397.175607652</v>
       </c>
     </row>
     <row r="35">
@@ -7479,13 +7783,13 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>86535.0998856156</v>
+        <v>126222.738340104</v>
       </c>
       <c r="C35" t="n">
-        <v>10.1640894429445</v>
+        <v>20.6885004045919</v>
       </c>
       <c r="D35" t="n">
-        <v>147942.942650346</v>
+        <v>128397.175607652</v>
       </c>
     </row>
     <row r="36">
@@ -7493,13 +7797,13 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>159421.602581992</v>
+        <v>133858.296480424</v>
       </c>
       <c r="C36" t="n">
         <v>21.9775448122226</v>
       </c>
       <c r="D36" t="n">
-        <v>147942.942650346</v>
+        <v>128397.175607652</v>
       </c>
     </row>
     <row r="37">
@@ -7507,13 +7811,13 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>211589.405270047</v>
+        <v>146965.774825416</v>
       </c>
       <c r="C37" t="n">
-        <v>29.7825270850367</v>
+        <v>21.8493623216283</v>
       </c>
       <c r="D37" t="n">
-        <v>147942.942650346</v>
+        <v>128397.175607652</v>
       </c>
     </row>
     <row r="38">
@@ -7521,13 +7825,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>178382.72857761</v>
+        <v>168215.471829805</v>
       </c>
       <c r="C38" t="n">
         <v>24.4157035732447</v>
       </c>
       <c r="D38" t="n">
-        <v>128219.84883679</v>
+        <v>26395.5725533501</v>
       </c>
     </row>
     <row r="39">
@@ -7535,13 +7839,13 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>184357.979289838</v>
+        <v>186002.762950563</v>
       </c>
       <c r="C39" t="n">
         <v>24.7871171457485</v>
       </c>
       <c r="D39" t="n">
-        <v>128219.84883679</v>
+        <v>26395.5725533501</v>
       </c>
     </row>
     <row r="40">
@@ -7549,13 +7853,13 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>164832.974916964</v>
+        <v>171790.681151999</v>
       </c>
       <c r="C40" t="n">
         <v>21.7294243937836</v>
       </c>
       <c r="D40" t="n">
-        <v>128219.84883679</v>
+        <v>26395.5725533501</v>
       </c>
     </row>
     <row r="41">
@@ -7563,13 +7867,13 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>156833.559679438</v>
+        <v>158411.781138346</v>
       </c>
       <c r="C41" t="n">
         <v>20.8669731402835</v>
       </c>
       <c r="D41" t="n">
-        <v>128219.84883679</v>
+        <v>26395.5725533501</v>
       </c>
     </row>
     <row r="42">
@@ -7577,13 +7881,13 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>129965.893402003</v>
+        <v>139617.843671983</v>
       </c>
       <c r="C42" t="n">
         <v>17.5824264602258</v>
       </c>
       <c r="D42" t="n">
-        <v>128232.208017835</v>
+        <v>125401.429608985</v>
       </c>
     </row>
     <row r="43">
@@ -7591,13 +7895,13 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>132889.808553137</v>
+        <v>132098.438590063</v>
       </c>
       <c r="C43" t="n">
         <v>18.4498584482223</v>
       </c>
       <c r="D43" t="n">
-        <v>128232.208017835</v>
+        <v>125401.429608985</v>
       </c>
     </row>
     <row r="44">
@@ -7605,13 +7909,13 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>131468.347940417</v>
+        <v>126286.149029144</v>
       </c>
       <c r="C44" t="n">
         <v>18.2833403621097</v>
       </c>
       <c r="D44" t="n">
-        <v>128232.208017835</v>
+        <v>125401.429608985</v>
       </c>
     </row>
     <row r="45">
@@ -7619,13 +7923,13 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>127064.249928356</v>
+        <v>123389.379087566</v>
       </c>
       <c r="C45" t="n">
         <v>17.2898766528343</v>
       </c>
       <c r="D45" t="n">
-        <v>128232.208017835</v>
+        <v>125401.429608985</v>
       </c>
     </row>
     <row r="46">
@@ -7633,13 +7937,13 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>164895.00203959</v>
+        <v>159924.024302605</v>
       </c>
       <c r="C46" t="n">
         <v>23.3418536860815</v>
       </c>
       <c r="D46" t="n">
-        <v>98151.2383025452</v>
+        <v>80264.8300421062</v>
       </c>
     </row>
     <row r="47">
@@ -7647,13 +7951,13 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>167526.965628306</v>
+        <v>166938.912676799</v>
       </c>
       <c r="C47" t="n">
         <v>22.8377542054028</v>
       </c>
       <c r="D47" t="n">
-        <v>98151.2383025452</v>
+        <v>80264.8300421062</v>
       </c>
     </row>
     <row r="48">
@@ -7661,13 +7965,13 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>158820.490452789</v>
+        <v>162011.562818083</v>
       </c>
       <c r="C48" t="n">
         <v>20.405744928882</v>
       </c>
       <c r="D48" t="n">
-        <v>98151.2383025452</v>
+        <v>80264.8300421062</v>
       </c>
     </row>
     <row r="49">
@@ -7675,13 +7979,13 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>174023.474245936</v>
+        <v>176397.9407926</v>
       </c>
       <c r="C49" t="n">
         <v>21.4000977455449</v>
       </c>
       <c r="D49" t="n">
-        <v>98151.2383025452</v>
+        <v>80264.8300421062</v>
       </c>
     </row>
     <row r="50">
@@ -7689,13 +7993,13 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>196494.821197905</v>
+        <v>198413.141395558</v>
       </c>
       <c r="C50" t="n">
         <v>22.0902856409605</v>
       </c>
       <c r="D50" t="n">
-        <v>134195.912179708</v>
+        <v>128521.740623193</v>
       </c>
     </row>
     <row r="51">
@@ -7703,13 +8007,13 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>207904.56637107</v>
+        <v>207496.888506668</v>
       </c>
       <c r="C51" t="n">
         <v>23.2894702798281</v>
       </c>
       <c r="D51" t="n">
-        <v>134195.912179708</v>
+        <v>128521.740623193</v>
       </c>
     </row>
     <row r="52">
@@ -7717,13 +8021,13 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>207394.415098658</v>
+        <v>205959.627812552</v>
       </c>
       <c r="C52" t="n">
         <v>23.6645841822058</v>
       </c>
       <c r="D52" t="n">
-        <v>134195.912179708</v>
+        <v>128521.740623193</v>
       </c>
     </row>
     <row r="53">
@@ -7731,13 +8035,13 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>185334.121102223</v>
+        <v>185261.767727673</v>
       </c>
       <c r="C53" t="n">
         <v>21.7527611844481</v>
       </c>
       <c r="D53" t="n">
-        <v>134195.912179708</v>
+        <v>128521.740623193</v>
       </c>
     </row>
     <row r="54">
@@ -7745,13 +8049,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>203406.59842866</v>
+        <v>202166.298360538</v>
       </c>
       <c r="C54" t="n">
         <v>23.1415852874408</v>
       </c>
       <c r="D54" t="n">
-        <v>247550.26633692</v>
+        <v>243972.349468956</v>
       </c>
     </row>
     <row r="55">
@@ -7759,13 +8063,13 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>176007.443042133</v>
+        <v>177429.259700085</v>
       </c>
       <c r="C55" t="n">
         <v>20.1906188003574</v>
       </c>
       <c r="D55" t="n">
-        <v>247550.26633692</v>
+        <v>243972.349468956</v>
       </c>
     </row>
     <row r="56">
@@ -7773,13 +8077,13 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>197158.80836502</v>
+        <v>196490.363972676</v>
       </c>
       <c r="C56" t="n">
         <v>23.399882817857</v>
       </c>
       <c r="D56" t="n">
-        <v>247550.26633692</v>
+        <v>243972.349468956</v>
       </c>
     </row>
     <row r="57">
@@ -7787,13 +8091,13 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>196260.342291241</v>
+        <v>196744.963763393</v>
       </c>
       <c r="C57" t="n">
         <v>22.0449510634726</v>
       </c>
       <c r="D57" t="n">
-        <v>247550.26633692</v>
+        <v>243972.349468956</v>
       </c>
     </row>
     <row r="58">
@@ -7801,13 +8105,13 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>206199.910299492</v>
+        <v>206883.502382471</v>
       </c>
       <c r="C58" t="n">
         <v>21.4883178975589</v>
       </c>
       <c r="D58" t="n">
-        <v>236559.673861787</v>
+        <v>231475.678315643</v>
       </c>
     </row>
     <row r="59">
@@ -7815,13 +8119,13 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>213519.702167915</v>
+        <v>213929.278540838</v>
       </c>
       <c r="C59" t="n">
         <v>21.6920880988078</v>
       </c>
       <c r="D59" t="n">
-        <v>236559.673861787</v>
+        <v>231475.678315643</v>
       </c>
     </row>
     <row r="60">
@@ -7829,13 +8133,13 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>214655.983677555</v>
+        <v>214249.390427841</v>
       </c>
       <c r="C60" t="n">
         <v>22.4816378411183</v>
       </c>
       <c r="D60" t="n">
-        <v>236559.673861787</v>
+        <v>231475.678315643</v>
       </c>
     </row>
     <row r="61">
@@ -7843,13 +8147,13 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>200101.467275828</v>
+        <v>199413.279733976</v>
       </c>
       <c r="C61" t="n">
         <v>22.4127787967373</v>
       </c>
       <c r="D61" t="n">
-        <v>236559.673861787</v>
+        <v>231475.678315643</v>
       </c>
     </row>
     <row r="62">
@@ -7857,13 +8161,13 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>168487.393247719</v>
+        <v>169049.104215831</v>
       </c>
       <c r="C62" t="n">
         <v>19.0665150620148</v>
       </c>
       <c r="D62" t="n">
-        <v>302825.762667228</v>
+        <v>297218.223361934</v>
       </c>
     </row>
     <row r="63">
@@ -7871,13 +8175,13 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>162670.587186503</v>
+        <v>162336.229157932</v>
       </c>
       <c r="C63" t="n">
         <v>20.0020993335916</v>
       </c>
       <c r="D63" t="n">
-        <v>302825.762667228</v>
+        <v>297218.223361934</v>
       </c>
     </row>
     <row r="64">
@@ -7885,13 +8189,13 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>161978.059404391</v>
+        <v>161784.845125341</v>
       </c>
       <c r="C64" t="n">
         <v>19.868159522839</v>
       </c>
       <c r="D64" t="n">
-        <v>302825.762667228</v>
+        <v>297218.223361934</v>
       </c>
     </row>
     <row r="65">
@@ -7899,13 +8203,13 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>175452.506007209</v>
+        <v>175413.535375758</v>
       </c>
       <c r="C65" t="n">
         <v>20.0383109848434</v>
       </c>
       <c r="D65" t="n">
-        <v>302825.762667228</v>
+        <v>297218.223361934</v>
       </c>
     </row>
     <row r="66">
@@ -7913,13 +8217,13 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>178856.43287011</v>
+        <v>178789.325041946</v>
       </c>
       <c r="C66" t="n">
         <v>20.3670059421224</v>
       </c>
       <c r="D66" t="n">
-        <v>196845.43614249</v>
+        <v>184453.495155659</v>
       </c>
     </row>
     <row r="67">
@@ -7927,13 +8231,13 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>193704.588908524</v>
+        <v>193906.042362996</v>
       </c>
       <c r="C67" t="n">
         <v>20.3404449770063</v>
       </c>
       <c r="D67" t="n">
-        <v>196845.43614249</v>
+        <v>184453.495155659</v>
       </c>
     </row>
     <row r="68">
@@ -7941,13 +8245,13 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>191979.927744484</v>
+        <v>192979.206011234</v>
       </c>
       <c r="C68" t="n">
         <v>19.238953862392</v>
       </c>
       <c r="D68" t="n">
-        <v>196845.43614249</v>
+        <v>184453.495155659</v>
       </c>
     </row>
     <row r="69">
@@ -7955,13 +8259,13 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>204223.860138799</v>
+        <v>203091.319050689</v>
       </c>
       <c r="C69" t="n">
         <v>21.7018735974778</v>
       </c>
       <c r="D69" t="n">
-        <v>196845.43614249</v>
+        <v>184453.495155659</v>
       </c>
     </row>
     <row r="70">
@@ -7969,13 +8273,13 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>187945.650826723</v>
+        <v>188166.180781365</v>
       </c>
       <c r="C70" t="n">
         <v>18.5195425273225</v>
       </c>
       <c r="D70" t="n">
-        <v>279418.292976169</v>
+        <v>269019.378475149</v>
       </c>
     </row>
     <row r="71">
@@ -7983,13 +8287,13 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>188892.697780073</v>
+        <v>187986.107917157</v>
       </c>
       <c r="C71" t="n">
         <v>20.0231597893409</v>
       </c>
       <c r="D71" t="n">
-        <v>279418.292976169</v>
+        <v>269019.378475149</v>
       </c>
     </row>
     <row r="72">
@@ -7997,13 +8301,13 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>184128.03941472</v>
+        <v>183814.149073239</v>
       </c>
       <c r="C72" t="n">
         <v>19.9733464256157</v>
       </c>
       <c r="D72" t="n">
-        <v>279418.292976169</v>
+        <v>269019.378475149</v>
       </c>
     </row>
     <row r="73">
@@ -8011,13 +8315,13 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>182497.999702829</v>
+        <v>183494.755115285</v>
       </c>
       <c r="C73" t="n">
         <v>19.7138882166296</v>
       </c>
       <c r="D73" t="n">
-        <v>279418.292976169</v>
+        <v>269019.378475149</v>
       </c>
     </row>
     <row r="74">
@@ -8025,13 +8329,13 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>200002.305471308</v>
+        <v>200642.535045138</v>
       </c>
       <c r="C74" t="n">
         <v>21.768382789165</v>
       </c>
       <c r="D74" t="n">
-        <v>276625.49264914</v>
+        <v>263677.999061089</v>
       </c>
     </row>
     <row r="75">
@@ -8039,13 +8343,13 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>222988.528833472</v>
+        <v>222726.078315134</v>
       </c>
       <c r="C75" t="n">
         <v>24.8286230429217</v>
       </c>
       <c r="D75" t="n">
-        <v>276625.49264914</v>
+        <v>263677.999061089</v>
       </c>
     </row>
     <row r="76">
@@ -8053,13 +8357,13 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>236204.120214196</v>
+        <v>235647.132918674</v>
       </c>
       <c r="C76" t="n">
         <v>26.6708827706342</v>
       </c>
       <c r="D76" t="n">
-        <v>276625.49264914</v>
+        <v>263677.999061089</v>
       </c>
     </row>
     <row r="77">
@@ -8067,13 +8371,13 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>235942.44134441</v>
+        <v>236118.848648818</v>
       </c>
       <c r="C77" t="n">
         <v>26.7321113972791</v>
       </c>
       <c r="D77" t="n">
-        <v>276625.49264914</v>
+        <v>263677.999061089</v>
       </c>
     </row>
     <row r="78">
@@ -8081,13 +8385,13 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>256603.695263835</v>
+        <v>258159.979584924</v>
       </c>
       <c r="C78" t="n">
         <v>29.9589485177964</v>
       </c>
       <c r="D78" t="n">
-        <v>284983.081770117</v>
+        <v>288266.479298967</v>
       </c>
     </row>
     <row r="79">
@@ -8095,13 +8399,13 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>278290.607036213</v>
+        <v>277071.55077182</v>
       </c>
       <c r="C79" t="n">
         <v>33.6558078578433</v>
       </c>
       <c r="D79" t="n">
-        <v>284983.081770117</v>
+        <v>288266.479298967</v>
       </c>
     </row>
     <row r="80">
@@ -8109,13 +8413,13 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>263323.286305823</v>
+        <v>262955.512787999</v>
       </c>
       <c r="C80" t="n">
         <v>31.8201251548662</v>
       </c>
       <c r="D80" t="n">
-        <v>284983.081770117</v>
+        <v>288266.479298967</v>
       </c>
     </row>
     <row r="81">
@@ -8123,13 +8427,13 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>247766.380474292</v>
+        <v>247792.08198323</v>
       </c>
       <c r="C81" t="n">
         <v>29.9302392656515</v>
       </c>
       <c r="D81" t="n">
-        <v>284983.081770117</v>
+        <v>288266.479298967</v>
       </c>
     </row>
     <row r="82">
@@ -8137,13 +8441,13 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>235323.121356437</v>
+        <v>238588.479552755</v>
       </c>
       <c r="C82" t="n">
         <v>29.0870550320519</v>
       </c>
       <c r="D82" t="n">
-        <v>268848.052777892</v>
+        <v>291042.673165049</v>
       </c>
     </row>
     <row r="83">
@@ -8151,13 +8455,13 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>218490.825981182</v>
+        <v>219988.908689589</v>
       </c>
       <c r="C83" t="n">
         <v>28.3541232611199</v>
       </c>
       <c r="D83" t="n">
-        <v>268848.052777892</v>
+        <v>291042.673165049</v>
       </c>
     </row>
     <row r="84">
@@ -8165,13 +8469,13 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>181995.755646318</v>
+        <v>182172.819724088</v>
       </c>
       <c r="C84" t="n">
         <v>25.9496844001354</v>
       </c>
       <c r="D84" t="n">
-        <v>268848.052777892</v>
+        <v>291042.673165049</v>
       </c>
     </row>
     <row r="85">
@@ -8179,13 +8483,13 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>163353.494347813</v>
+        <v>158407.042616297</v>
       </c>
       <c r="C85" t="n">
         <v>27.5724793587587</v>
       </c>
       <c r="D85" t="n">
-        <v>268848.052777892</v>
+        <v>291042.673165049</v>
       </c>
     </row>
     <row r="86">
@@ -8193,13 +8497,13 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>84549.7003896075</v>
+        <v>75084.5328128541</v>
       </c>
       <c r="C86" t="n">
         <v>26.4440266962017</v>
       </c>
       <c r="D86" t="n">
-        <v>116835.31903373</v>
+        <v>128292.5473314</v>
       </c>
     </row>
     <row r="87">
@@ -8207,13 +8511,13 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>69135.9918146371</v>
+        <v>57749.7420702392</v>
       </c>
       <c r="C87" t="n">
         <v>26.96007454148</v>
       </c>
       <c r="D87" t="n">
-        <v>116835.31903373</v>
+        <v>128292.5473314</v>
       </c>
     </row>
     <row r="88">
@@ -8221,13 +8525,13 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>43775.921986247</v>
+        <v>71233.4929112655</v>
       </c>
       <c r="C88" t="n">
-        <v>23.0527291378194</v>
+        <v>28.9267016854286</v>
       </c>
       <c r="D88" t="n">
-        <v>116835.31903373</v>
+        <v>128292.5473314</v>
       </c>
     </row>
     <row r="89">
@@ -8235,13 +8539,13 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>103835.902370812</v>
+        <v>97232.3869361681</v>
       </c>
       <c r="C89" t="n">
         <v>29.2084628399983</v>
       </c>
       <c r="D89" t="n">
-        <v>116835.31903373</v>
+        <v>128292.5473314</v>
       </c>
     </row>
     <row r="90">
@@ -8249,13 +8553,13 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>36663.2688958393</v>
+        <v>35401.9160044364</v>
       </c>
       <c r="C90" t="n">
         <v>28.5732450432684</v>
       </c>
       <c r="D90" t="n">
-        <v>-346160.350564035</v>
+        <v>-372942.894132243</v>
       </c>
     </row>
     <row r="91">
@@ -8263,13 +8567,13 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>93009.3781254842</v>
+        <v>93175.6929819341</v>
       </c>
       <c r="C91" t="n">
         <v>32.7014300675765</v>
       </c>
       <c r="D91" t="n">
-        <v>-346160.350564035</v>
+        <v>-372942.894132243</v>
       </c>
     </row>
     <row r="92">
@@ -8277,13 +8581,13 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>113644.935188004</v>
+        <v>114712.946219116</v>
       </c>
       <c r="C92" t="n">
         <v>32.8541732434097</v>
       </c>
       <c r="D92" t="n">
-        <v>-346160.350564035</v>
+        <v>-372942.894132243</v>
       </c>
     </row>
     <row r="93">
@@ -8291,13 +8595,13 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>110820.089548679</v>
+        <v>110876.458480883</v>
       </c>
       <c r="C93" t="n">
         <v>30.8923126671373</v>
       </c>
       <c r="D93" t="n">
-        <v>-346160.350564035</v>
+        <v>-372942.894132243</v>
       </c>
     </row>
     <row r="94">
@@ -8305,13 +8609,13 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>88608.5828456478</v>
+        <v>94396.8071888619</v>
       </c>
       <c r="C94" t="n">
         <v>29.9240077211821</v>
       </c>
       <c r="D94" t="n">
-        <v>-420766.140276778</v>
+        <v>-398827.962585367</v>
       </c>
     </row>
     <row r="95">
@@ -8319,13 +8623,13 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>92917.9257826562</v>
+        <v>93791.705382471</v>
       </c>
       <c r="C95" t="n">
         <v>30.5158747966012</v>
       </c>
       <c r="D95" t="n">
-        <v>-420766.140276778</v>
+        <v>-398827.962585367</v>
       </c>
     </row>
     <row r="96">
@@ -8333,13 +8637,13 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>93810.083917626</v>
+        <v>91631.8915315739</v>
       </c>
       <c r="C96" t="n">
         <v>30.6095723417151</v>
       </c>
       <c r="D96" t="n">
-        <v>-420766.140276778</v>
+        <v>-398827.962585367</v>
       </c>
     </row>
     <row r="97">
@@ -8347,13 +8651,13 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>100891.754987727</v>
+        <v>96436.0756243801</v>
       </c>
       <c r="C97" t="n">
         <v>31.664389419102</v>
       </c>
       <c r="D97" t="n">
-        <v>-420766.140276778</v>
+        <v>-398827.962585367</v>
       </c>
     </row>
     <row r="98">
@@ -8361,13 +8665,13 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>112178.772382385</v>
+        <v>113788.145779974</v>
       </c>
       <c r="C98" t="n">
-        <v>31.664389419102</v>
+        <v>31.9422295704907</v>
       </c>
       <c r="D98" t="n">
-        <v>-383489.895347456</v>
+        <v>-93789.120258208</v>
       </c>
     </row>
     <row r="99">
@@ -8375,13 +8679,13 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>112178.772382385</v>
+        <v>116404.25794938</v>
       </c>
       <c r="C99" t="n">
-        <v>31.664389419102</v>
+        <v>32.2200697218794</v>
       </c>
       <c r="D99" t="n">
-        <v>-383489.895347456</v>
+        <v>-92600.6682585102</v>
       </c>
     </row>
     <row r="100">
@@ -8389,13 +8693,13 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>112178.772382385</v>
+        <v>120014.569444839</v>
       </c>
       <c r="C100" t="n">
-        <v>31.664389419102</v>
+        <v>32.4979098732681</v>
       </c>
       <c r="D100" t="n">
-        <v>-383489.895347456</v>
+        <v>-90223.7642591145</v>
       </c>
     </row>
     <row r="101">
@@ -8403,13 +8707,13 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>112178.772382385</v>
+        <v>124619.08026635</v>
       </c>
       <c r="C101" t="n">
-        <v>31.664389419102</v>
+        <v>32.7757500246569</v>
       </c>
       <c r="D101" t="n">
-        <v>-383489.895347456</v>
+        <v>-86658.408260021</v>
       </c>
     </row>
     <row r="102">
@@ -8417,13 +8721,13 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>112178.772382385</v>
+        <v>130217.790413914</v>
       </c>
       <c r="C102" t="n">
-        <v>31.664389419102</v>
+        <v>33.0535901760456</v>
       </c>
       <c r="D102" t="n">
-        <v>-383489.895347456</v>
+        <v>-81904.6002612296</v>
       </c>
     </row>
     <row r="103">
@@ -8431,13 +8735,13 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>112178.772382385</v>
+        <v>135414.994572241</v>
       </c>
       <c r="C103" t="n">
-        <v>31.664389419102</v>
+        <v>33.3314303274343</v>
       </c>
       <c r="D103" t="n">
-        <v>-383489.895347456</v>
+        <v>-77630.7469187081</v>
       </c>
     </row>
     <row r="104">
@@ -8445,13 +8749,13 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>112178.772382385</v>
+        <v>140210.692741331</v>
       </c>
       <c r="C104" t="n">
-        <v>31.664389419102</v>
+        <v>33.609270478823</v>
       </c>
       <c r="D104" t="n">
-        <v>-383489.895347456</v>
+        <v>-73836.8482324563</v>
       </c>
     </row>
     <row r="105">
@@ -8459,13 +8763,13 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>112178.772382385</v>
+        <v>144604.884921184</v>
       </c>
       <c r="C105" t="n">
-        <v>31.664389419102</v>
+        <v>33.8871106302117</v>
       </c>
       <c r="D105" t="n">
-        <v>-383489.895347456</v>
+        <v>-70522.9042024744</v>
       </c>
     </row>
     <row r="106">
@@ -8473,13 +8777,13 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>112178.772382385</v>
+        <v>148597.5711118</v>
       </c>
       <c r="C106" t="n">
-        <v>31.664389419102</v>
+        <v>34.1649507816004</v>
       </c>
       <c r="D106" t="n">
-        <v>-383489.895347456</v>
+        <v>-67688.9148287622</v>
       </c>
     </row>
     <row r="107">
@@ -8487,13 +8791,13 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>112178.772382385</v>
+        <v>152550.799519733</v>
       </c>
       <c r="C107" t="n">
-        <v>31.664389419102</v>
+        <v>34.4427909329891</v>
       </c>
       <c r="D107" t="n">
-        <v>-383489.895347456</v>
+        <v>-64902.092737812</v>
       </c>
     </row>
     <row r="108">
@@ -8501,13 +8805,13 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>112178.772382385</v>
+        <v>156464.570144983</v>
       </c>
       <c r="C108" t="n">
-        <v>31.664389419102</v>
+        <v>34.7206310843778</v>
       </c>
       <c r="D108" t="n">
-        <v>-383489.895347456</v>
+        <v>-62162.4379296237</v>
       </c>
     </row>
     <row r="109">
@@ -8515,13 +8819,13 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>112178.772382385</v>
+        <v>160338.882987549</v>
       </c>
       <c r="C109" t="n">
-        <v>31.664389419102</v>
+        <v>34.9984712357666</v>
       </c>
       <c r="D109" t="n">
-        <v>-383489.895347456</v>
+        <v>-59469.9504041974</v>
       </c>
     </row>
     <row r="110">
@@ -8529,13 +8833,13 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>112178.772382385</v>
+        <v>164173.738047432</v>
       </c>
       <c r="C110" t="n">
-        <v>31.664389419102</v>
+        <v>35.2763113871553</v>
       </c>
       <c r="D110" t="n">
-        <v>-383489.895347456</v>
+        <v>-56824.6301615329</v>
       </c>
     </row>
     <row r="111">
@@ -8543,13 +8847,13 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>112178.772382385</v>
+        <v>167904.531235892</v>
       </c>
       <c r="C111" t="n">
-        <v>31.664389419102</v>
+        <v>35.554151538544</v>
       </c>
       <c r="D111" t="n">
-        <v>-383489.895347456</v>
+        <v>-54303.7040277193</v>
       </c>
     </row>
     <row r="112">
@@ -8557,13 +8861,13 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>112178.772382385</v>
+        <v>171531.26255293</v>
       </c>
       <c r="C112" t="n">
-        <v>31.664389419102</v>
+        <v>35.8319916899327</v>
       </c>
       <c r="D112" t="n">
-        <v>-383489.895347456</v>
+        <v>-51907.1720027564</v>
       </c>
     </row>
     <row r="113">
@@ -8571,13 +8875,13 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>112178.772382385</v>
+        <v>175053.931998546</v>
       </c>
       <c r="C113" t="n">
-        <v>31.664389419102</v>
+        <v>36.1098318413214</v>
       </c>
       <c r="D113" t="n">
-        <v>-383489.895347456</v>
+        <v>-49635.0340866443</v>
       </c>
     </row>
     <row r="114">
@@ -8585,13 +8889,13 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>112178.772382385</v>
+        <v>178472.539572739</v>
       </c>
       <c r="C114" t="n">
-        <v>31.664389419102</v>
+        <v>36.3876719927101</v>
       </c>
       <c r="D114" t="n">
-        <v>-383489.895347456</v>
+        <v>-47487.290279383</v>
       </c>
     </row>
     <row r="115">
@@ -8599,13 +8903,13 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>112178.772382385</v>
+        <v>181820.307485419</v>
       </c>
       <c r="C115" t="n">
-        <v>31.664389419102</v>
+        <v>36.6655121440988</v>
       </c>
       <c r="D115" t="n">
-        <v>-383489.895347456</v>
+        <v>-45424.2272148823</v>
       </c>
     </row>
     <row r="116">
@@ -8613,13 +8917,13 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>112178.772382385</v>
+        <v>185097.235736587</v>
       </c>
       <c r="C116" t="n">
-        <v>31.664389419102</v>
+        <v>36.9433522954875</v>
       </c>
       <c r="D116" t="n">
-        <v>-383489.895347456</v>
+        <v>-43445.8448931424</v>
       </c>
     </row>
     <row r="117">
@@ -8627,13 +8931,237 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>112178.772382385</v>
+        <v>188303.324326243</v>
       </c>
       <c r="C117" t="n">
-        <v>31.664389419102</v>
+        <v>37.2211924468762</v>
       </c>
       <c r="D117" t="n">
-        <v>-383489.895347456</v>
+        <v>-41552.1433141632</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="n">
+        <v>191438.573254386</v>
+      </c>
+      <c r="C118" t="n">
+        <v>37.4990325982649</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-39743.1224779448</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="n">
+        <v>194514.276312983</v>
+      </c>
+      <c r="C119" t="n">
+        <v>37.7768727496537</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-38005.2819431831</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="n">
+        <v>197530.433502033</v>
+      </c>
+      <c r="C120" t="n">
+        <v>38.0547129010424</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-36338.6217098782</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>200487.044821536</v>
+      </c>
+      <c r="C121" t="n">
+        <v>38.3325530524311</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-34743.14177803</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="n">
+        <v>203384.110271493</v>
+      </c>
+      <c r="C122" t="n">
+        <v>38.6103932038198</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-33218.8421476386</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="n">
+        <v>206216.403188076</v>
+      </c>
+      <c r="C123" t="n">
+        <v>38.8882333552085</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-31771.9706997006</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="n">
+        <v>208983.923571287</v>
+      </c>
+      <c r="C124" t="n">
+        <v>39.1660735065972</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-30402.5274342158</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="n">
+        <v>211686.671421124</v>
+      </c>
+      <c r="C125" t="n">
+        <v>39.4439136579859</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-29110.5123511844</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="n">
+        <v>214324.646737589</v>
+      </c>
+      <c r="C126" t="n">
+        <v>39.7217538093746</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-27895.9254506063</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="n">
+        <v>216974.543126269</v>
+      </c>
+      <c r="C127" t="n">
+        <v>39.9995939607633</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-26667.0882666677</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="n">
+        <v>219636.360587165</v>
+      </c>
+      <c r="C128" t="n">
+        <v>40.2774341121521</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-25424.0007993686</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>222310.099120276</v>
+      </c>
+      <c r="C129" t="n">
+        <v>40.5552742635408</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-24166.663048709</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="n">
+        <v>224995.758725603</v>
+      </c>
+      <c r="C130" t="n">
+        <v>40.8331144149295</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-22895.0750146889</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="n">
+        <v>227415.481640436</v>
+      </c>
+      <c r="C131" t="n">
+        <v>41.1109545663182</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-21941.3839891739</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="n">
+        <v>229569.267864776</v>
+      </c>
+      <c r="C132" t="n">
+        <v>41.3887947177069</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-21305.5899721638</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="n">
+        <v>231457.117398623</v>
+      </c>
+      <c r="C133" t="n">
+        <v>41.6666348690956</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-20987.6929636588</v>
       </c>
     </row>
   </sheetData>
@@ -8655,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
@@ -8663,7 +9191,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>43002.3380982417</v>
+        <v>41516.1214812771</v>
       </c>
     </row>
     <row r="3">
@@ -8671,7 +9199,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>41230.5855747097</v>
+        <v>40395.1621850334</v>
       </c>
     </row>
     <row r="4">
@@ -8679,7 +9207,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>39869.278637444</v>
+        <v>40088.3011266524</v>
       </c>
     </row>
     <row r="5">
@@ -8687,7 +9215,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>35161.374759125</v>
+        <v>37263.9922765576</v>
       </c>
     </row>
     <row r="6">
@@ -8695,7 +9223,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45502.321745105</v>
+        <v>44168.9245933314</v>
       </c>
     </row>
     <row r="7">
@@ -8703,7 +9231,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>43934.9096139774</v>
+        <v>43968.510491915</v>
       </c>
     </row>
     <row r="8">
@@ -8711,7 +9239,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>44035.1168652852</v>
+        <v>44635.7891881263</v>
       </c>
     </row>
     <row r="9">
@@ -8719,7 +9247,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>42778.5110314262</v>
+        <v>43488.8543937367</v>
       </c>
     </row>
     <row r="10">
@@ -8727,7 +9255,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>46372.8166382293</v>
+        <v>46447.5716977665</v>
       </c>
     </row>
     <row r="11">
@@ -8735,7 +9263,7 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>47745.7676721153</v>
+        <v>47433.6429826349</v>
       </c>
     </row>
     <row r="12">
@@ -8743,7 +9271,7 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>48911.6329930478</v>
+        <v>48648.3997850517</v>
       </c>
     </row>
     <row r="13">
@@ -8751,7 +9279,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>47307.5572026429</v>
+        <v>47819.2378784803</v>
       </c>
     </row>
     <row r="14">
@@ -8759,7 +9287,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>68217.5949489822</v>
+        <v>67687.2107174225</v>
       </c>
     </row>
     <row r="15">
@@ -8767,7 +9295,7 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>68238.6670029334</v>
+        <v>68080.8004024282</v>
       </c>
     </row>
     <row r="16">
@@ -8775,7 +9303,7 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>57534.8320119387</v>
+        <v>58333.4499399278</v>
       </c>
     </row>
     <row r="17">
@@ -8783,7 +9311,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>57638.1602054956</v>
+        <v>57538.6570904635</v>
       </c>
     </row>
     <row r="18">
@@ -8791,7 +9319,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>54164.4186938331</v>
+        <v>54573.2139869008</v>
       </c>
     </row>
     <row r="19">
@@ -8799,7 +9327,7 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>56348.4954778758</v>
+        <v>55826.0265201784</v>
       </c>
     </row>
     <row r="20">
@@ -8807,7 +9335,7 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>55507.0545715288</v>
+        <v>55229.1398064213</v>
       </c>
     </row>
     <row r="21">
@@ -8815,7 +9343,7 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>58173.8572701204</v>
+        <v>58576.3467940367</v>
       </c>
     </row>
     <row r="22">
@@ -8823,7 +9351,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>80310.5205247323</v>
+        <v>79419.6498696944</v>
       </c>
     </row>
     <row r="23">
@@ -8831,7 +9359,7 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>92734.9026434455</v>
+        <v>91797.6114217841</v>
       </c>
     </row>
     <row r="24">
@@ -8839,7 +9367,7 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>90663.0356995798</v>
+        <v>90866.1495690523</v>
       </c>
     </row>
     <row r="25">
@@ -8847,7 +9375,7 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>81987.7595696558</v>
+        <v>83624.2160565204</v>
       </c>
     </row>
     <row r="26">
@@ -8855,7 +9383,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>112350.447471742</v>
+        <v>113267.436190705</v>
       </c>
     </row>
     <row r="27">
@@ -8863,7 +9391,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>117375.949498372</v>
+        <v>118149.982070656</v>
       </c>
     </row>
     <row r="28">
@@ -8871,7 +9399,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>134666.78109989</v>
+        <v>134339.046337131</v>
       </c>
     </row>
     <row r="29">
@@ -8879,7 +9407,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>155089.206380552</v>
+        <v>153735.316475729</v>
       </c>
     </row>
     <row r="30">
@@ -8887,7 +9415,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>138784.05589399</v>
+        <v>145444.913195138</v>
       </c>
     </row>
     <row r="31">
@@ -8895,7 +9423,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>139143.380658337</v>
+        <v>143802.703885509</v>
       </c>
     </row>
     <row r="32">
@@ -8903,7 +9431,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>143075.328629453</v>
+        <v>141650.646517247</v>
       </c>
     </row>
     <row r="33">
@@ -8911,7 +9439,7 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>135530.022857436</v>
+        <v>125643.308497172</v>
       </c>
     </row>
     <row r="34">
@@ -8919,7 +9447,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>86954.3467794548</v>
+        <v>137457.861052683</v>
       </c>
     </row>
     <row r="35">
@@ -8927,7 +9455,7 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>86535.0998856156</v>
+        <v>126222.738340104</v>
       </c>
     </row>
     <row r="36">
@@ -8935,7 +9463,7 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>159421.602581992</v>
+        <v>133858.296480424</v>
       </c>
     </row>
     <row r="37">
@@ -8943,7 +9471,7 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>211589.405270047</v>
+        <v>146965.774825416</v>
       </c>
     </row>
     <row r="38">
@@ -8951,7 +9479,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>178382.72857761</v>
+        <v>168215.471829805</v>
       </c>
     </row>
     <row r="39">
@@ -8959,7 +9487,7 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>184357.979289838</v>
+        <v>186002.762950563</v>
       </c>
     </row>
     <row r="40">
@@ -8967,7 +9495,7 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>164832.974916964</v>
+        <v>171790.681151999</v>
       </c>
     </row>
     <row r="41">
@@ -8975,7 +9503,7 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>156833.559679438</v>
+        <v>158411.781138346</v>
       </c>
     </row>
     <row r="42">
@@ -8983,7 +9511,7 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>129965.893402003</v>
+        <v>139617.843671983</v>
       </c>
     </row>
     <row r="43">
@@ -8991,7 +9519,7 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>132889.808553137</v>
+        <v>132098.438590063</v>
       </c>
     </row>
     <row r="44">
@@ -8999,7 +9527,7 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>131468.347940417</v>
+        <v>126286.149029144</v>
       </c>
     </row>
     <row r="45">
@@ -9007,7 +9535,7 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>127064.249928356</v>
+        <v>123389.379087566</v>
       </c>
     </row>
     <row r="46">
@@ -9015,7 +9543,7 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>164895.00203959</v>
+        <v>159924.024302605</v>
       </c>
     </row>
     <row r="47">
@@ -9023,7 +9551,7 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>167526.965628306</v>
+        <v>166938.912676799</v>
       </c>
     </row>
     <row r="48">
@@ -9031,7 +9559,7 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>158820.490452789</v>
+        <v>162011.562818083</v>
       </c>
     </row>
     <row r="49">
@@ -9039,7 +9567,7 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>174023.474245936</v>
+        <v>176397.9407926</v>
       </c>
     </row>
     <row r="50">
@@ -9047,7 +9575,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>196494.821197905</v>
+        <v>198413.141395558</v>
       </c>
     </row>
     <row r="51">
@@ -9055,7 +9583,7 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>207904.56637107</v>
+        <v>207496.888506668</v>
       </c>
     </row>
     <row r="52">
@@ -9063,7 +9591,7 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>207394.415098658</v>
+        <v>205959.627812552</v>
       </c>
     </row>
     <row r="53">
@@ -9071,7 +9599,7 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>185334.121102223</v>
+        <v>185261.767727673</v>
       </c>
     </row>
     <row r="54">
@@ -9079,7 +9607,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>203406.59842866</v>
+        <v>202166.298360538</v>
       </c>
     </row>
     <row r="55">
@@ -9087,7 +9615,7 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>176007.443042133</v>
+        <v>177429.259700085</v>
       </c>
     </row>
     <row r="56">
@@ -9095,7 +9623,7 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>197158.80836502</v>
+        <v>196490.363972676</v>
       </c>
     </row>
     <row r="57">
@@ -9103,7 +9631,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>196260.342291241</v>
+        <v>196744.963763393</v>
       </c>
     </row>
     <row r="58">
@@ -9111,7 +9639,7 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>206199.910299492</v>
+        <v>206883.502382471</v>
       </c>
     </row>
     <row r="59">
@@ -9119,7 +9647,7 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>213519.702167915</v>
+        <v>213929.278540838</v>
       </c>
     </row>
     <row r="60">
@@ -9127,7 +9655,7 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>214655.983677555</v>
+        <v>214249.390427841</v>
       </c>
     </row>
     <row r="61">
@@ -9135,7 +9663,7 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>200101.467275828</v>
+        <v>199413.279733976</v>
       </c>
     </row>
     <row r="62">
@@ -9143,7 +9671,7 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>168487.393247719</v>
+        <v>169049.104215831</v>
       </c>
     </row>
     <row r="63">
@@ -9151,7 +9679,7 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>162670.587186503</v>
+        <v>162336.229157932</v>
       </c>
     </row>
     <row r="64">
@@ -9159,7 +9687,7 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>161978.059404391</v>
+        <v>161784.845125341</v>
       </c>
     </row>
     <row r="65">
@@ -9167,7 +9695,7 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>175452.506007209</v>
+        <v>175413.535375758</v>
       </c>
     </row>
     <row r="66">
@@ -9175,7 +9703,7 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>178856.43287011</v>
+        <v>178789.325041946</v>
       </c>
     </row>
     <row r="67">
@@ -9183,7 +9711,7 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>193704.588908524</v>
+        <v>193906.042362996</v>
       </c>
     </row>
     <row r="68">
@@ -9191,7 +9719,7 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>191979.927744484</v>
+        <v>192979.206011234</v>
       </c>
     </row>
     <row r="69">
@@ -9199,7 +9727,7 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>204223.860138799</v>
+        <v>203091.319050689</v>
       </c>
     </row>
     <row r="70">
@@ -9207,7 +9735,7 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>187945.650826723</v>
+        <v>188166.180781365</v>
       </c>
     </row>
     <row r="71">
@@ -9215,7 +9743,7 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>188892.697780073</v>
+        <v>187986.107917157</v>
       </c>
     </row>
     <row r="72">
@@ -9223,7 +9751,7 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>184128.03941472</v>
+        <v>183814.149073239</v>
       </c>
     </row>
     <row r="73">
@@ -9231,7 +9759,7 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>182497.999702829</v>
+        <v>183494.755115285</v>
       </c>
     </row>
     <row r="74">
@@ -9239,7 +9767,7 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>200002.305471308</v>
+        <v>200642.535045138</v>
       </c>
     </row>
     <row r="75">
@@ -9247,7 +9775,7 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>222988.528833472</v>
+        <v>222726.078315134</v>
       </c>
     </row>
     <row r="76">
@@ -9255,7 +9783,7 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>236204.120214196</v>
+        <v>235647.132918674</v>
       </c>
     </row>
     <row r="77">
@@ -9263,7 +9791,7 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>235942.44134441</v>
+        <v>236118.848648818</v>
       </c>
     </row>
     <row r="78">
@@ -9271,7 +9799,7 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>256603.695263835</v>
+        <v>258159.979584924</v>
       </c>
     </row>
     <row r="79">
@@ -9279,7 +9807,7 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>278290.607036213</v>
+        <v>277071.55077182</v>
       </c>
     </row>
     <row r="80">
@@ -9287,7 +9815,7 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>263323.286305823</v>
+        <v>262955.512787999</v>
       </c>
     </row>
     <row r="81">
@@ -9295,7 +9823,7 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>247766.380474292</v>
+        <v>247792.08198323</v>
       </c>
     </row>
     <row r="82">
@@ -9303,7 +9831,7 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>235323.121356437</v>
+        <v>238588.479552755</v>
       </c>
     </row>
     <row r="83">
@@ -9311,7 +9839,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>218490.825981182</v>
+        <v>219988.908689589</v>
       </c>
     </row>
     <row r="84">
@@ -9319,7 +9847,7 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>181995.755646318</v>
+        <v>182172.819724088</v>
       </c>
     </row>
     <row r="85">
@@ -9327,7 +9855,7 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>163353.494347813</v>
+        <v>158407.042616297</v>
       </c>
     </row>
     <row r="86">
@@ -9335,7 +9863,7 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>84549.7003896075</v>
+        <v>75084.5328128541</v>
       </c>
     </row>
     <row r="87">
@@ -9343,7 +9871,7 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>69135.9918146371</v>
+        <v>57749.7420702392</v>
       </c>
     </row>
     <row r="88">
@@ -9351,7 +9879,7 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>43775.921986247</v>
+        <v>71233.4929112655</v>
       </c>
     </row>
     <row r="89">
@@ -9359,7 +9887,7 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>103835.902370812</v>
+        <v>97232.3869361681</v>
       </c>
     </row>
     <row r="90">
@@ -9367,7 +9895,7 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>36663.2688958393</v>
+        <v>35401.9160044364</v>
       </c>
     </row>
     <row r="91">
@@ -9375,7 +9903,7 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>93009.3781254842</v>
+        <v>93175.6929819341</v>
       </c>
     </row>
     <row r="92">
@@ -9383,7 +9911,7 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>113644.935188004</v>
+        <v>114712.946219116</v>
       </c>
     </row>
     <row r="93">
@@ -9391,7 +9919,7 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>110820.089548679</v>
+        <v>110876.458480883</v>
       </c>
     </row>
     <row r="94">
@@ -9399,7 +9927,7 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>88608.5828456478</v>
+        <v>94396.8071888619</v>
       </c>
     </row>
     <row r="95">
@@ -9407,7 +9935,7 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>92917.9257826562</v>
+        <v>93791.705382471</v>
       </c>
     </row>
     <row r="96">
@@ -9415,7 +9943,7 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>93810.083917626</v>
+        <v>91631.8915315739</v>
       </c>
     </row>
     <row r="97">
@@ -9423,7 +9951,7 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>100891.754987727</v>
+        <v>96436.0756243801</v>
       </c>
     </row>
     <row r="98">
@@ -9431,7 +9959,7 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>112178.772382385</v>
+        <v>113788.145779974</v>
       </c>
     </row>
     <row r="99">
@@ -9439,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>112178.772382385</v>
+        <v>116404.25794938</v>
       </c>
     </row>
     <row r="100">
@@ -9447,7 +9975,7 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>112178.772382385</v>
+        <v>120014.569444839</v>
       </c>
     </row>
     <row r="101">
@@ -9455,7 +9983,7 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>112178.772382385</v>
+        <v>124619.08026635</v>
       </c>
     </row>
     <row r="102">
@@ -9463,7 +9991,7 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>112178.772382385</v>
+        <v>130217.790413914</v>
       </c>
     </row>
     <row r="103">
@@ -9471,7 +9999,7 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>112178.772382385</v>
+        <v>135414.994572241</v>
       </c>
     </row>
     <row r="104">
@@ -9479,7 +10007,7 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>112178.772382385</v>
+        <v>140210.692741331</v>
       </c>
     </row>
     <row r="105">
@@ -9487,7 +10015,7 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>112178.772382385</v>
+        <v>144604.884921184</v>
       </c>
     </row>
     <row r="106">
@@ -9495,7 +10023,7 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>112178.772382385</v>
+        <v>148597.5711118</v>
       </c>
     </row>
     <row r="107">
@@ -9503,7 +10031,7 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>112178.772382385</v>
+        <v>152550.799519733</v>
       </c>
     </row>
     <row r="108">
@@ -9511,7 +10039,7 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>112178.772382385</v>
+        <v>156464.570144983</v>
       </c>
     </row>
     <row r="109">
@@ -9519,7 +10047,7 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>112178.772382385</v>
+        <v>160338.882987549</v>
       </c>
     </row>
     <row r="110">
@@ -9527,7 +10055,7 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>112178.772382385</v>
+        <v>164173.738047432</v>
       </c>
     </row>
     <row r="111">
@@ -9535,7 +10063,7 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>112178.772382385</v>
+        <v>167904.531235892</v>
       </c>
     </row>
     <row r="112">
@@ -9543,7 +10071,7 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>112178.772382385</v>
+        <v>171531.26255293</v>
       </c>
     </row>
     <row r="113">
@@ -9551,7 +10079,7 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>112178.772382385</v>
+        <v>175053.931998546</v>
       </c>
     </row>
     <row r="114">
@@ -9559,7 +10087,7 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>112178.772382385</v>
+        <v>178472.539572739</v>
       </c>
     </row>
     <row r="115">
@@ -9567,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>112178.772382385</v>
+        <v>181820.307485419</v>
       </c>
     </row>
     <row r="116">
@@ -9575,7 +10103,7 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>112178.772382385</v>
+        <v>185097.235736587</v>
       </c>
     </row>
     <row r="117">
@@ -9583,7 +10111,135 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>112178.772382385</v>
+        <v>188303.324326243</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="n">
+        <v>191438.573254386</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="n">
+        <v>194514.276312983</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="n">
+        <v>197530.433502033</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>200487.044821536</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="n">
+        <v>203384.110271493</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="n">
+        <v>206216.403188076</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="n">
+        <v>208983.923571287</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="n">
+        <v>211686.671421124</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="n">
+        <v>214324.646737589</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="n">
+        <v>216974.543126269</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="n">
+        <v>219636.360587165</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>222310.099120276</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="n">
+        <v>224995.758725603</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="n">
+        <v>227415.481640436</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="n">
+        <v>229569.267864776</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="n">
+        <v>231457.117398623</v>
       </c>
     </row>
   </sheetData>
